--- a/examples/build_formant_table_from_numbers.xlsx
+++ b/examples/build_formant_table_from_numbers.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathan/Library/Mobile Documents/com~apple~CloudDocs/Italian/Phonetics/phonetics_tools/plot_vowel_space/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FA0B5CB-3EDA-3641-BAD0-D8A5DF417573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A976114-704C-204D-A46D-50B98C755351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="36000" windowHeight="21020" activeTab="1" xr2:uid="{2E31C3E8-DF9D-134F-9F92-83CFD81F2D23}"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="36000" windowHeight="21020" xr2:uid="{2E31C3E8-DF9D-134F-9F92-83CFD81F2D23}"/>
   </bookViews>
   <sheets>
     <sheet name="vowel_data" sheetId="1" r:id="rId1"/>
-    <sheet name="standard_italian_vowels_formant" sheetId="3" r:id="rId2"/>
+    <sheet name="csv_output" sheetId="3" r:id="rId2"/>
     <sheet name="source" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
   <si>
     <t>Vowel</t>
   </si>
@@ -110,9 +110,6 @@
     <t>The sound pattern of Standard Italian, as compared with the varieties spoken in Florence, Milan and Rome</t>
   </si>
   <si>
-    <t>Table 1 (from 10 student from Florence)</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1017/S0025100305002148</t>
   </si>
   <si>
@@ -141,6 +138,27 @@
   </si>
   <si>
     <t>F3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Table 1 (from 10 students from Florence)</t>
+  </si>
+  <si>
+    <t>Source for Italian formant frequencies:</t>
+  </si>
+  <si>
+    <t>Publication</t>
+  </si>
+  <si>
+    <t>Authors</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Location</t>
   </si>
 </sst>
 </file>
@@ -228,8 +246,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FD8F3CC8-13B1-D045-A41D-5893DB5D8511}" name="tblSourceFrequencies" displayName="tblSourceFrequencies" ref="A1:I8" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:I8" xr:uid="{FD8F3CC8-13B1-D045-A41D-5893DB5D8511}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FD8F3CC8-13B1-D045-A41D-5893DB5D8511}" name="tblSourceFrequencies" displayName="tblSourceFrequencies" ref="A1:I31" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:I31" xr:uid="{FD8F3CC8-13B1-D045-A41D-5893DB5D8511}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{98C15F42-BD22-AC4D-A260-740C9AF0A922}" name="Vowel"/>
     <tableColumn id="2" xr3:uid="{6E4A689F-72B3-0E4A-B470-74EA7656D355}" name="F1 mean"/>
@@ -546,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9794191-355C-6841-BBE0-7DDE0C88FC23}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -586,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -807,6 +825,305 @@
       <c r="I8">
         <f>INT(tblSourceFrequencies[[#This Row],[F1 mean]]+tblSourceFrequencies[[#This Row],[F1 variance]]/4)</f>
         <v>330</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9">
+        <f>INT(tblSourceFrequencies[[#This Row],[F1 mean]]-tblSourceFrequencies[[#This Row],[F1 variance]]/4)</f>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f>INT(tblSourceFrequencies[[#This Row],[F1 mean]]+tblSourceFrequencies[[#This Row],[F1 variance]]/4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10">
+        <f>INT(tblSourceFrequencies[[#This Row],[F1 mean]]-tblSourceFrequencies[[#This Row],[F1 variance]]/4)</f>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f>INT(tblSourceFrequencies[[#This Row],[F1 mean]]+tblSourceFrequencies[[#This Row],[F1 variance]]/4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11">
+        <f>INT(tblSourceFrequencies[[#This Row],[F1 mean]]-tblSourceFrequencies[[#This Row],[F1 variance]]/4)</f>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f>INT(tblSourceFrequencies[[#This Row],[F1 mean]]+tblSourceFrequencies[[#This Row],[F1 variance]]/4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12">
+        <f>INT(tblSourceFrequencies[[#This Row],[F1 mean]]-tblSourceFrequencies[[#This Row],[F1 variance]]/4)</f>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f>INT(tblSourceFrequencies[[#This Row],[F1 mean]]+tblSourceFrequencies[[#This Row],[F1 variance]]/4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13">
+        <f>INT(tblSourceFrequencies[[#This Row],[F1 mean]]-tblSourceFrequencies[[#This Row],[F1 variance]]/4)</f>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f>INT(tblSourceFrequencies[[#This Row],[F1 mean]]+tblSourceFrequencies[[#This Row],[F1 variance]]/4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14">
+        <f>INT(tblSourceFrequencies[[#This Row],[F1 mean]]-tblSourceFrequencies[[#This Row],[F1 variance]]/4)</f>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f>INT(tblSourceFrequencies[[#This Row],[F1 mean]]+tblSourceFrequencies[[#This Row],[F1 variance]]/4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15">
+        <f>INT(tblSourceFrequencies[[#This Row],[F1 mean]]-tblSourceFrequencies[[#This Row],[F1 variance]]/4)</f>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f>INT(tblSourceFrequencies[[#This Row],[F1 mean]]+tblSourceFrequencies[[#This Row],[F1 variance]]/4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16">
+        <f>INT(tblSourceFrequencies[[#This Row],[F1 mean]]-tblSourceFrequencies[[#This Row],[F1 variance]]/4)</f>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f>INT(tblSourceFrequencies[[#This Row],[F1 mean]]+tblSourceFrequencies[[#This Row],[F1 variance]]/4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17">
+        <f>INT(tblSourceFrequencies[[#This Row],[F1 mean]]-tblSourceFrequencies[[#This Row],[F1 variance]]/4)</f>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f>INT(tblSourceFrequencies[[#This Row],[F1 mean]]+tblSourceFrequencies[[#This Row],[F1 variance]]/4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18">
+        <f>INT(tblSourceFrequencies[[#This Row],[F1 mean]]-tblSourceFrequencies[[#This Row],[F1 variance]]/4)</f>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f>INT(tblSourceFrequencies[[#This Row],[F1 mean]]+tblSourceFrequencies[[#This Row],[F1 variance]]/4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19">
+        <f>INT(tblSourceFrequencies[[#This Row],[F1 mean]]-tblSourceFrequencies[[#This Row],[F1 variance]]/4)</f>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f>INT(tblSourceFrequencies[[#This Row],[F1 mean]]+tblSourceFrequencies[[#This Row],[F1 variance]]/4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20">
+        <f>INT(tblSourceFrequencies[[#This Row],[F1 mean]]-tblSourceFrequencies[[#This Row],[F1 variance]]/4)</f>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f>INT(tblSourceFrequencies[[#This Row],[F1 mean]]+tblSourceFrequencies[[#This Row],[F1 variance]]/4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21">
+        <f>INT(tblSourceFrequencies[[#This Row],[F1 mean]]-tblSourceFrequencies[[#This Row],[F1 variance]]/4)</f>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f>INT(tblSourceFrequencies[[#This Row],[F1 mean]]+tblSourceFrequencies[[#This Row],[F1 variance]]/4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22">
+        <f>INT(tblSourceFrequencies[[#This Row],[F1 mean]]-tblSourceFrequencies[[#This Row],[F1 variance]]/4)</f>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f>INT(tblSourceFrequencies[[#This Row],[F1 mean]]+tblSourceFrequencies[[#This Row],[F1 variance]]/4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23">
+        <f>INT(tblSourceFrequencies[[#This Row],[F1 mean]]-tblSourceFrequencies[[#This Row],[F1 variance]]/4)</f>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f>INT(tblSourceFrequencies[[#This Row],[F1 mean]]+tblSourceFrequencies[[#This Row],[F1 variance]]/4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24">
+        <f>INT(tblSourceFrequencies[[#This Row],[F1 mean]]-tblSourceFrequencies[[#This Row],[F1 variance]]/4)</f>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f>INT(tblSourceFrequencies[[#This Row],[F1 mean]]+tblSourceFrequencies[[#This Row],[F1 variance]]/4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25">
+        <f>INT(tblSourceFrequencies[[#This Row],[F1 mean]]-tblSourceFrequencies[[#This Row],[F1 variance]]/4)</f>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f>INT(tblSourceFrequencies[[#This Row],[F1 mean]]+tblSourceFrequencies[[#This Row],[F1 variance]]/4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26">
+        <f>INT(tblSourceFrequencies[[#This Row],[F1 mean]]-tblSourceFrequencies[[#This Row],[F1 variance]]/4)</f>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f>INT(tblSourceFrequencies[[#This Row],[F1 mean]]+tblSourceFrequencies[[#This Row],[F1 variance]]/4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27">
+        <f>INT(tblSourceFrequencies[[#This Row],[F1 mean]]-tblSourceFrequencies[[#This Row],[F1 variance]]/4)</f>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f>INT(tblSourceFrequencies[[#This Row],[F1 mean]]+tblSourceFrequencies[[#This Row],[F1 variance]]/4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28">
+        <f>INT(tblSourceFrequencies[[#This Row],[F1 mean]]-tblSourceFrequencies[[#This Row],[F1 variance]]/4)</f>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f>INT(tblSourceFrequencies[[#This Row],[F1 mean]]+tblSourceFrequencies[[#This Row],[F1 variance]]/4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29">
+        <f>INT(tblSourceFrequencies[[#This Row],[F1 mean]]-tblSourceFrequencies[[#This Row],[F1 variance]]/4)</f>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f>INT(tblSourceFrequencies[[#This Row],[F1 mean]]+tblSourceFrequencies[[#This Row],[F1 variance]]/4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30">
+        <f>INT(tblSourceFrequencies[[#This Row],[F1 mean]]-tblSourceFrequencies[[#This Row],[F1 variance]]/4)</f>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f>INT(tblSourceFrequencies[[#This Row],[F1 mean]]+tblSourceFrequencies[[#This Row],[F1 variance]]/4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31">
+        <f>INT(tblSourceFrequencies[[#This Row],[F1 mean]]-tblSourceFrequencies[[#This Row],[F1 variance]]/4)</f>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f>INT(tblSourceFrequencies[[#This Row],[F1 mean]]+tblSourceFrequencies[[#This Row],[F1 variance]]/4)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -820,33 +1137,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142D1631-4846-D64D-8EEC-F48B1794BF93}">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G281"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -885,11 +1202,11 @@
         <v>i</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B71" si="1">IF(MOD((ROW()-1),10)=0,10,MOD((ROW()-1),10))</f>
+        <f t="shared" ref="B3:B281" si="1">IF(MOD((ROW()-1),10)=0,10,MOD((ROW()-1),10))</f>
         <v>2</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:D3" si="2">B3</f>
+        <f t="shared" ref="C3" si="2">B3</f>
         <v>2</v>
       </c>
       <c r="D3">
@@ -919,7 +1236,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:D4" si="3">B4</f>
+        <f t="shared" ref="C4" si="3">B4</f>
         <v>3</v>
       </c>
       <c r="D4">
@@ -949,7 +1266,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:D5" si="4">B5</f>
+        <f t="shared" ref="C5" si="4">B5</f>
         <v>4</v>
       </c>
       <c r="D5">
@@ -979,7 +1296,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:D6" si="5">B6</f>
+        <f t="shared" ref="C6" si="5">B6</f>
         <v>5</v>
       </c>
       <c r="D6">
@@ -1009,7 +1326,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:D7" si="6">B7</f>
+        <f t="shared" ref="C7" si="6">B7</f>
         <v>6</v>
       </c>
       <c r="D7">
@@ -1039,7 +1356,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:D8" si="7">B8</f>
+        <f t="shared" ref="C8" si="7">B8</f>
         <v>7</v>
       </c>
       <c r="D8">
@@ -1069,7 +1386,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:D9" si="8">B9</f>
+        <f t="shared" ref="C9" si="8">B9</f>
         <v>8</v>
       </c>
       <c r="D9">
@@ -1099,7 +1416,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <f t="shared" ref="C10:D10" si="9">B10</f>
+        <f t="shared" ref="C10" si="9">B10</f>
         <v>9</v>
       </c>
       <c r="D10">
@@ -1129,7 +1446,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:D11" si="10">B11</f>
+        <f t="shared" ref="C11" si="10">B11</f>
         <v>10</v>
       </c>
       <c r="D11">
@@ -1189,7 +1506,7 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:D13" si="11">B13</f>
+        <f t="shared" ref="C13" si="11">B13</f>
         <v>2</v>
       </c>
       <c r="D13">
@@ -1219,7 +1536,7 @@
         <v>3</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="C14:D14" si="12">B14</f>
+        <f t="shared" ref="C14" si="12">B14</f>
         <v>3</v>
       </c>
       <c r="D14">
@@ -1249,7 +1566,7 @@
         <v>4</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15:D15" si="13">B15</f>
+        <f t="shared" ref="C15" si="13">B15</f>
         <v>4</v>
       </c>
       <c r="D15">
@@ -1279,7 +1596,7 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <f t="shared" ref="C16:D16" si="14">B16</f>
+        <f t="shared" ref="C16" si="14">B16</f>
         <v>5</v>
       </c>
       <c r="D16">
@@ -1309,7 +1626,7 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <f t="shared" ref="C17:D17" si="15">B17</f>
+        <f t="shared" ref="C17" si="15">B17</f>
         <v>6</v>
       </c>
       <c r="D17">
@@ -1339,7 +1656,7 @@
         <v>7</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C18:D18" si="16">B18</f>
+        <f t="shared" ref="C18" si="16">B18</f>
         <v>7</v>
       </c>
       <c r="D18">
@@ -1369,7 +1686,7 @@
         <v>8</v>
       </c>
       <c r="C19">
-        <f t="shared" ref="C19:D19" si="17">B19</f>
+        <f t="shared" ref="C19" si="17">B19</f>
         <v>8</v>
       </c>
       <c r="D19">
@@ -1399,7 +1716,7 @@
         <v>9</v>
       </c>
       <c r="C20">
-        <f t="shared" ref="C20:D20" si="18">B20</f>
+        <f t="shared" ref="C20" si="18">B20</f>
         <v>9</v>
       </c>
       <c r="D20">
@@ -1429,7 +1746,7 @@
         <v>10</v>
       </c>
       <c r="C21">
-        <f t="shared" ref="C21:D21" si="19">B21</f>
+        <f t="shared" ref="C21" si="19">B21</f>
         <v>10</v>
       </c>
       <c r="D21">
@@ -1489,7 +1806,7 @@
         <v>2</v>
       </c>
       <c r="C23">
-        <f t="shared" ref="C23:D23" si="20">B23</f>
+        <f t="shared" ref="C23" si="20">B23</f>
         <v>2</v>
       </c>
       <c r="D23">
@@ -1519,7 +1836,7 @@
         <v>3</v>
       </c>
       <c r="C24">
-        <f t="shared" ref="C24:D24" si="21">B24</f>
+        <f t="shared" ref="C24" si="21">B24</f>
         <v>3</v>
       </c>
       <c r="D24">
@@ -1549,7 +1866,7 @@
         <v>4</v>
       </c>
       <c r="C25">
-        <f t="shared" ref="C25:D25" si="22">B25</f>
+        <f t="shared" ref="C25" si="22">B25</f>
         <v>4</v>
       </c>
       <c r="D25">
@@ -1579,7 +1896,7 @@
         <v>5</v>
       </c>
       <c r="C26">
-        <f t="shared" ref="C26:D26" si="23">B26</f>
+        <f t="shared" ref="C26" si="23">B26</f>
         <v>5</v>
       </c>
       <c r="D26">
@@ -1609,7 +1926,7 @@
         <v>6</v>
       </c>
       <c r="C27">
-        <f t="shared" ref="C27:D27" si="24">B27</f>
+        <f t="shared" ref="C27" si="24">B27</f>
         <v>6</v>
       </c>
       <c r="D27">
@@ -1639,7 +1956,7 @@
         <v>7</v>
       </c>
       <c r="C28">
-        <f t="shared" ref="C28:D28" si="25">B28</f>
+        <f t="shared" ref="C28" si="25">B28</f>
         <v>7</v>
       </c>
       <c r="D28">
@@ -1669,7 +1986,7 @@
         <v>8</v>
       </c>
       <c r="C29">
-        <f t="shared" ref="C29:D29" si="26">B29</f>
+        <f t="shared" ref="C29" si="26">B29</f>
         <v>8</v>
       </c>
       <c r="D29">
@@ -1699,7 +2016,7 @@
         <v>9</v>
       </c>
       <c r="C30">
-        <f t="shared" ref="C30:D30" si="27">B30</f>
+        <f t="shared" ref="C30" si="27">B30</f>
         <v>9</v>
       </c>
       <c r="D30">
@@ -1729,7 +2046,7 @@
         <v>10</v>
       </c>
       <c r="C31">
-        <f t="shared" ref="C31:D31" si="28">B31</f>
+        <f t="shared" ref="C31" si="28">B31</f>
         <v>10</v>
       </c>
       <c r="D31">
@@ -1789,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="C33">
-        <f t="shared" ref="C33:D33" si="29">B33</f>
+        <f t="shared" ref="C33" si="29">B33</f>
         <v>2</v>
       </c>
       <c r="D33">
@@ -1819,7 +2136,7 @@
         <v>3</v>
       </c>
       <c r="C34">
-        <f t="shared" ref="C34:D34" si="30">B34</f>
+        <f t="shared" ref="C34" si="30">B34</f>
         <v>3</v>
       </c>
       <c r="D34">
@@ -1849,7 +2166,7 @@
         <v>4</v>
       </c>
       <c r="C35">
-        <f t="shared" ref="C35:D35" si="31">B35</f>
+        <f t="shared" ref="C35" si="31">B35</f>
         <v>4</v>
       </c>
       <c r="D35">
@@ -1879,7 +2196,7 @@
         <v>5</v>
       </c>
       <c r="C36">
-        <f t="shared" ref="C36:D36" si="32">B36</f>
+        <f t="shared" ref="C36" si="32">B36</f>
         <v>5</v>
       </c>
       <c r="D36">
@@ -1909,7 +2226,7 @@
         <v>6</v>
       </c>
       <c r="C37">
-        <f t="shared" ref="C37:D37" si="33">B37</f>
+        <f t="shared" ref="C37" si="33">B37</f>
         <v>6</v>
       </c>
       <c r="D37">
@@ -1939,7 +2256,7 @@
         <v>7</v>
       </c>
       <c r="C38">
-        <f t="shared" ref="C38:D38" si="34">B38</f>
+        <f t="shared" ref="C38" si="34">B38</f>
         <v>7</v>
       </c>
       <c r="D38">
@@ -1969,7 +2286,7 @@
         <v>8</v>
       </c>
       <c r="C39">
-        <f t="shared" ref="C39:D39" si="35">B39</f>
+        <f t="shared" ref="C39" si="35">B39</f>
         <v>8</v>
       </c>
       <c r="D39">
@@ -1999,7 +2316,7 @@
         <v>9</v>
       </c>
       <c r="C40">
-        <f t="shared" ref="C40:D40" si="36">B40</f>
+        <f t="shared" ref="C40" si="36">B40</f>
         <v>9</v>
       </c>
       <c r="D40">
@@ -2029,7 +2346,7 @@
         <v>10</v>
       </c>
       <c r="C41">
-        <f t="shared" ref="C41:D41" si="37">B41</f>
+        <f t="shared" ref="C41" si="37">B41</f>
         <v>10</v>
       </c>
       <c r="D41">
@@ -2089,7 +2406,7 @@
         <v>2</v>
       </c>
       <c r="C43">
-        <f t="shared" ref="C43:D43" si="38">B43</f>
+        <f t="shared" ref="C43" si="38">B43</f>
         <v>2</v>
       </c>
       <c r="D43">
@@ -2119,7 +2436,7 @@
         <v>3</v>
       </c>
       <c r="C44">
-        <f t="shared" ref="C44:D44" si="39">B44</f>
+        <f t="shared" ref="C44" si="39">B44</f>
         <v>3</v>
       </c>
       <c r="D44">
@@ -2149,7 +2466,7 @@
         <v>4</v>
       </c>
       <c r="C45">
-        <f t="shared" ref="C45:D45" si="40">B45</f>
+        <f t="shared" ref="C45" si="40">B45</f>
         <v>4</v>
       </c>
       <c r="D45">
@@ -2179,7 +2496,7 @@
         <v>5</v>
       </c>
       <c r="C46">
-        <f t="shared" ref="C46:D46" si="41">B46</f>
+        <f t="shared" ref="C46" si="41">B46</f>
         <v>5</v>
       </c>
       <c r="D46">
@@ -2209,7 +2526,7 @@
         <v>6</v>
       </c>
       <c r="C47">
-        <f t="shared" ref="C47:D47" si="42">B47</f>
+        <f t="shared" ref="C47" si="42">B47</f>
         <v>6</v>
       </c>
       <c r="D47">
@@ -2239,7 +2556,7 @@
         <v>7</v>
       </c>
       <c r="C48">
-        <f t="shared" ref="C48:D48" si="43">B48</f>
+        <f t="shared" ref="C48" si="43">B48</f>
         <v>7</v>
       </c>
       <c r="D48">
@@ -2269,7 +2586,7 @@
         <v>8</v>
       </c>
       <c r="C49">
-        <f t="shared" ref="C49:D49" si="44">B49</f>
+        <f t="shared" ref="C49" si="44">B49</f>
         <v>8</v>
       </c>
       <c r="D49">
@@ -2299,7 +2616,7 @@
         <v>9</v>
       </c>
       <c r="C50">
-        <f t="shared" ref="C50:D50" si="45">B50</f>
+        <f t="shared" ref="C50" si="45">B50</f>
         <v>9</v>
       </c>
       <c r="D50">
@@ -2329,7 +2646,7 @@
         <v>10</v>
       </c>
       <c r="C51">
-        <f t="shared" ref="C51:D51" si="46">B51</f>
+        <f t="shared" ref="C51" si="46">B51</f>
         <v>10</v>
       </c>
       <c r="D51">
@@ -2389,7 +2706,7 @@
         <v>2</v>
       </c>
       <c r="C53">
-        <f t="shared" ref="C53:D53" si="47">B53</f>
+        <f t="shared" ref="C53" si="47">B53</f>
         <v>2</v>
       </c>
       <c r="D53">
@@ -2419,7 +2736,7 @@
         <v>3</v>
       </c>
       <c r="C54">
-        <f t="shared" ref="C54:D54" si="48">B54</f>
+        <f t="shared" ref="C54" si="48">B54</f>
         <v>3</v>
       </c>
       <c r="D54">
@@ -2449,7 +2766,7 @@
         <v>4</v>
       </c>
       <c r="C55">
-        <f t="shared" ref="C55:D55" si="49">B55</f>
+        <f t="shared" ref="C55" si="49">B55</f>
         <v>4</v>
       </c>
       <c r="D55">
@@ -2479,7 +2796,7 @@
         <v>5</v>
       </c>
       <c r="C56">
-        <f t="shared" ref="C56:D56" si="50">B56</f>
+        <f t="shared" ref="C56" si="50">B56</f>
         <v>5</v>
       </c>
       <c r="D56">
@@ -2509,7 +2826,7 @@
         <v>6</v>
       </c>
       <c r="C57">
-        <f t="shared" ref="C57:D57" si="51">B57</f>
+        <f t="shared" ref="C57" si="51">B57</f>
         <v>6</v>
       </c>
       <c r="D57">
@@ -2539,7 +2856,7 @@
         <v>7</v>
       </c>
       <c r="C58">
-        <f t="shared" ref="C58:D58" si="52">B58</f>
+        <f t="shared" ref="C58" si="52">B58</f>
         <v>7</v>
       </c>
       <c r="D58">
@@ -2569,7 +2886,7 @@
         <v>8</v>
       </c>
       <c r="C59">
-        <f t="shared" ref="C59:D59" si="53">B59</f>
+        <f t="shared" ref="C59" si="53">B59</f>
         <v>8</v>
       </c>
       <c r="D59">
@@ -2599,7 +2916,7 @@
         <v>9</v>
       </c>
       <c r="C60">
-        <f t="shared" ref="C60:D60" si="54">B60</f>
+        <f t="shared" ref="C60" si="54">B60</f>
         <v>9</v>
       </c>
       <c r="D60">
@@ -2629,7 +2946,7 @@
         <v>10</v>
       </c>
       <c r="C61">
-        <f t="shared" ref="C61:D61" si="55">B61</f>
+        <f t="shared" ref="C61" si="55">B61</f>
         <v>10</v>
       </c>
       <c r="D61">
@@ -2689,7 +3006,7 @@
         <v>2</v>
       </c>
       <c r="C63">
-        <f t="shared" ref="C63:D63" si="56">B63</f>
+        <f t="shared" ref="C63" si="56">B63</f>
         <v>2</v>
       </c>
       <c r="D63">
@@ -2719,7 +3036,7 @@
         <v>3</v>
       </c>
       <c r="C64">
-        <f t="shared" ref="C64:D64" si="57">B64</f>
+        <f t="shared" ref="C64" si="57">B64</f>
         <v>3</v>
       </c>
       <c r="D64">
@@ -2749,7 +3066,7 @@
         <v>4</v>
       </c>
       <c r="C65">
-        <f t="shared" ref="C65:D65" si="58">B65</f>
+        <f t="shared" ref="C65" si="58">B65</f>
         <v>4</v>
       </c>
       <c r="D65">
@@ -2779,7 +3096,7 @@
         <v>5</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:D66" si="59">B66</f>
+        <f t="shared" ref="C66" si="59">B66</f>
         <v>5</v>
       </c>
       <c r="D66">
@@ -2809,7 +3126,7 @@
         <v>6</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:D67" si="60">B67</f>
+        <f t="shared" ref="C67" si="60">B67</f>
         <v>6</v>
       </c>
       <c r="D67">
@@ -2839,7 +3156,7 @@
         <v>7</v>
       </c>
       <c r="C68">
-        <f t="shared" ref="C68:D68" si="61">B68</f>
+        <f t="shared" ref="C68" si="61">B68</f>
         <v>7</v>
       </c>
       <c r="D68">
@@ -2869,7 +3186,7 @@
         <v>8</v>
       </c>
       <c r="C69">
-        <f t="shared" ref="C69:D69" si="62">B69</f>
+        <f t="shared" ref="C69" si="62">B69</f>
         <v>8</v>
       </c>
       <c r="D69">
@@ -2899,7 +3216,7 @@
         <v>9</v>
       </c>
       <c r="C70">
-        <f t="shared" ref="C70:D70" si="63">B70</f>
+        <f t="shared" ref="C70" si="63">B70</f>
         <v>9</v>
       </c>
       <c r="D70">
@@ -2929,7 +3246,7 @@
         <v>10</v>
       </c>
       <c r="C71">
-        <f t="shared" ref="C71:D71" si="64">B71</f>
+        <f t="shared" ref="C71" si="64">B71</f>
         <v>10</v>
       </c>
       <c r="D71">
@@ -2947,6 +3264,6306 @@
       <c r="G71">
         <f ca="1">VLOOKUP($A71,tblSourceFrequencies[#All],6,FALSE)</f>
         <v>2270</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" t="str" cm="1">
+        <f t="array" aca="1" ref="A72" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B72">
+        <f>IF(MOD((ROW()-1),10)=0,10,MOD((ROW()-1),10))</f>
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <f>B72</f>
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <f t="shared" ref="D72:D141" si="65">C72</f>
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <f ca="1">VLOOKUP($A72,tblSourceFrequencies[#All],IF($D72&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <f ca="1">VLOOKUP($A72,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <f ca="1">VLOOKUP($A72,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" t="str" cm="1">
+        <f t="array" aca="1" ref="A73" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C73">
+        <f t="shared" ref="C73:C81" si="66">B73</f>
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="65"/>
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <f ca="1">VLOOKUP($A73,tblSourceFrequencies[#All],IF($D73&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <f ca="1">VLOOKUP($A73,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <f ca="1">VLOOKUP($A73,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" t="str" cm="1">
+        <f t="array" aca="1" ref="A74" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="66"/>
+        <v>3</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="65"/>
+        <v>3</v>
+      </c>
+      <c r="E74">
+        <f ca="1">VLOOKUP($A74,tblSourceFrequencies[#All],IF($D74&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <f ca="1">VLOOKUP($A74,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <f ca="1">VLOOKUP($A74,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" t="str" cm="1">
+        <f t="array" aca="1" ref="A75" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="66"/>
+        <v>4</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="65"/>
+        <v>4</v>
+      </c>
+      <c r="E75">
+        <f ca="1">VLOOKUP($A75,tblSourceFrequencies[#All],IF($D75&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <f ca="1">VLOOKUP($A75,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <f ca="1">VLOOKUP($A75,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" t="str" cm="1">
+        <f t="array" aca="1" ref="A76" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="66"/>
+        <v>5</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="65"/>
+        <v>5</v>
+      </c>
+      <c r="E76">
+        <f ca="1">VLOOKUP($A76,tblSourceFrequencies[#All],IF($D76&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <f ca="1">VLOOKUP($A76,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <f ca="1">VLOOKUP($A76,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" t="str" cm="1">
+        <f t="array" aca="1" ref="A77" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="66"/>
+        <v>6</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="65"/>
+        <v>6</v>
+      </c>
+      <c r="E77">
+        <f ca="1">VLOOKUP($A77,tblSourceFrequencies[#All],IF($D77&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <f ca="1">VLOOKUP($A77,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <f ca="1">VLOOKUP($A77,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" t="str" cm="1">
+        <f t="array" aca="1" ref="A78" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="66"/>
+        <v>7</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="65"/>
+        <v>7</v>
+      </c>
+      <c r="E78">
+        <f ca="1">VLOOKUP($A78,tblSourceFrequencies[#All],IF($D78&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <f ca="1">VLOOKUP($A78,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <f ca="1">VLOOKUP($A78,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" t="str" cm="1">
+        <f t="array" aca="1" ref="A79" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="66"/>
+        <v>8</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="65"/>
+        <v>8</v>
+      </c>
+      <c r="E79">
+        <f ca="1">VLOOKUP($A79,tblSourceFrequencies[#All],IF($D79&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <f ca="1">VLOOKUP($A79,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <f ca="1">VLOOKUP($A79,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" t="str" cm="1">
+        <f t="array" aca="1" ref="A80" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="66"/>
+        <v>9</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="65"/>
+        <v>9</v>
+      </c>
+      <c r="E80">
+        <f ca="1">VLOOKUP($A80,tblSourceFrequencies[#All],IF($D80&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <f ca="1">VLOOKUP($A80,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <f ca="1">VLOOKUP($A80,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" t="str" cm="1">
+        <f t="array" aca="1" ref="A81" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="66"/>
+        <v>10</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="65"/>
+        <v>10</v>
+      </c>
+      <c r="E81">
+        <f ca="1">VLOOKUP($A81,tblSourceFrequencies[#All],IF($D81&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <f ca="1">VLOOKUP($A81,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <f ca="1">VLOOKUP($A81,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" t="str" cm="1">
+        <f t="array" aca="1" ref="A82" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B82">
+        <f>IF(MOD((ROW()-1),10)=0,10,MOD((ROW()-1),10))</f>
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <f>B82</f>
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <f ca="1">VLOOKUP($A82,tblSourceFrequencies[#All],IF($D82&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <f ca="1">VLOOKUP($A82,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <f ca="1">VLOOKUP($A82,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" t="str" cm="1">
+        <f t="array" aca="1" ref="A83" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C83">
+        <f t="shared" ref="C83:C91" si="67">B83</f>
+        <v>2</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="65"/>
+        <v>2</v>
+      </c>
+      <c r="E83">
+        <f ca="1">VLOOKUP($A83,tblSourceFrequencies[#All],IF($D83&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <f ca="1">VLOOKUP($A83,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <f ca="1">VLOOKUP($A83,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" t="str" cm="1">
+        <f t="array" aca="1" ref="A84" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="67"/>
+        <v>3</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="65"/>
+        <v>3</v>
+      </c>
+      <c r="E84">
+        <f ca="1">VLOOKUP($A84,tblSourceFrequencies[#All],IF($D84&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <f ca="1">VLOOKUP($A84,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <f ca="1">VLOOKUP($A84,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" t="str" cm="1">
+        <f t="array" aca="1" ref="A85" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="67"/>
+        <v>4</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="65"/>
+        <v>4</v>
+      </c>
+      <c r="E85">
+        <f ca="1">VLOOKUP($A85,tblSourceFrequencies[#All],IF($D85&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <f ca="1">VLOOKUP($A85,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <f ca="1">VLOOKUP($A85,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" t="str" cm="1">
+        <f t="array" aca="1" ref="A86" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="67"/>
+        <v>5</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="65"/>
+        <v>5</v>
+      </c>
+      <c r="E86">
+        <f ca="1">VLOOKUP($A86,tblSourceFrequencies[#All],IF($D86&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <f ca="1">VLOOKUP($A86,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <f ca="1">VLOOKUP($A86,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" t="str" cm="1">
+        <f t="array" aca="1" ref="A87" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="67"/>
+        <v>6</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="65"/>
+        <v>6</v>
+      </c>
+      <c r="E87">
+        <f ca="1">VLOOKUP($A87,tblSourceFrequencies[#All],IF($D87&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <f ca="1">VLOOKUP($A87,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <f ca="1">VLOOKUP($A87,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" t="str" cm="1">
+        <f t="array" aca="1" ref="A88" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="67"/>
+        <v>7</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="65"/>
+        <v>7</v>
+      </c>
+      <c r="E88">
+        <f ca="1">VLOOKUP($A88,tblSourceFrequencies[#All],IF($D88&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <f ca="1">VLOOKUP($A88,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <f ca="1">VLOOKUP($A88,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" t="str" cm="1">
+        <f t="array" aca="1" ref="A89" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="67"/>
+        <v>8</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="65"/>
+        <v>8</v>
+      </c>
+      <c r="E89">
+        <f ca="1">VLOOKUP($A89,tblSourceFrequencies[#All],IF($D89&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <f ca="1">VLOOKUP($A89,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <f ca="1">VLOOKUP($A89,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" t="str" cm="1">
+        <f t="array" aca="1" ref="A90" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="67"/>
+        <v>9</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="65"/>
+        <v>9</v>
+      </c>
+      <c r="E90">
+        <f ca="1">VLOOKUP($A90,tblSourceFrequencies[#All],IF($D90&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <f ca="1">VLOOKUP($A90,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <f ca="1">VLOOKUP($A90,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" t="str" cm="1">
+        <f t="array" aca="1" ref="A91" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="67"/>
+        <v>10</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="65"/>
+        <v>10</v>
+      </c>
+      <c r="E91">
+        <f ca="1">VLOOKUP($A91,tblSourceFrequencies[#All],IF($D91&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <f ca="1">VLOOKUP($A91,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <f ca="1">VLOOKUP($A91,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" t="str" cm="1">
+        <f t="array" aca="1" ref="A92" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B92">
+        <f>IF(MOD((ROW()-1),10)=0,10,MOD((ROW()-1),10))</f>
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <f>B92</f>
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <f ca="1">VLOOKUP($A92,tblSourceFrequencies[#All],IF($D92&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <f ca="1">VLOOKUP($A92,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <f ca="1">VLOOKUP($A92,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" t="str" cm="1">
+        <f t="array" aca="1" ref="A93" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C93">
+        <f t="shared" ref="C93:C101" si="68">B93</f>
+        <v>2</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="65"/>
+        <v>2</v>
+      </c>
+      <c r="E93">
+        <f ca="1">VLOOKUP($A93,tblSourceFrequencies[#All],IF($D93&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <f ca="1">VLOOKUP($A93,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <f ca="1">VLOOKUP($A93,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" t="str" cm="1">
+        <f t="array" aca="1" ref="A94" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="68"/>
+        <v>3</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="65"/>
+        <v>3</v>
+      </c>
+      <c r="E94">
+        <f ca="1">VLOOKUP($A94,tblSourceFrequencies[#All],IF($D94&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <f ca="1">VLOOKUP($A94,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <f ca="1">VLOOKUP($A94,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" t="str" cm="1">
+        <f t="array" aca="1" ref="A95" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="68"/>
+        <v>4</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="65"/>
+        <v>4</v>
+      </c>
+      <c r="E95">
+        <f ca="1">VLOOKUP($A95,tblSourceFrequencies[#All],IF($D95&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <f ca="1">VLOOKUP($A95,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <f ca="1">VLOOKUP($A95,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" t="str" cm="1">
+        <f t="array" aca="1" ref="A96" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="68"/>
+        <v>5</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="65"/>
+        <v>5</v>
+      </c>
+      <c r="E96">
+        <f ca="1">VLOOKUP($A96,tblSourceFrequencies[#All],IF($D96&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <f ca="1">VLOOKUP($A96,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <f ca="1">VLOOKUP($A96,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" t="str" cm="1">
+        <f t="array" aca="1" ref="A97" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="68"/>
+        <v>6</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="65"/>
+        <v>6</v>
+      </c>
+      <c r="E97">
+        <f ca="1">VLOOKUP($A97,tblSourceFrequencies[#All],IF($D97&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <f ca="1">VLOOKUP($A97,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <f ca="1">VLOOKUP($A97,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" t="str" cm="1">
+        <f t="array" aca="1" ref="A98" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="68"/>
+        <v>7</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="65"/>
+        <v>7</v>
+      </c>
+      <c r="E98">
+        <f ca="1">VLOOKUP($A98,tblSourceFrequencies[#All],IF($D98&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <f ca="1">VLOOKUP($A98,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <f ca="1">VLOOKUP($A98,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" t="str" cm="1">
+        <f t="array" aca="1" ref="A99" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="68"/>
+        <v>8</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="65"/>
+        <v>8</v>
+      </c>
+      <c r="E99">
+        <f ca="1">VLOOKUP($A99,tblSourceFrequencies[#All],IF($D99&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <f ca="1">VLOOKUP($A99,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <f ca="1">VLOOKUP($A99,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" t="str" cm="1">
+        <f t="array" aca="1" ref="A100" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="68"/>
+        <v>9</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="65"/>
+        <v>9</v>
+      </c>
+      <c r="E100">
+        <f ca="1">VLOOKUP($A100,tblSourceFrequencies[#All],IF($D100&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <f ca="1">VLOOKUP($A100,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <f ca="1">VLOOKUP($A100,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" t="str" cm="1">
+        <f t="array" aca="1" ref="A101" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="68"/>
+        <v>10</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="65"/>
+        <v>10</v>
+      </c>
+      <c r="E101">
+        <f ca="1">VLOOKUP($A101,tblSourceFrequencies[#All],IF($D101&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <f ca="1">VLOOKUP($A101,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <f ca="1">VLOOKUP($A101,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" t="str" cm="1">
+        <f t="array" aca="1" ref="A102" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B102">
+        <f>IF(MOD((ROW()-1),10)=0,10,MOD((ROW()-1),10))</f>
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <f>B102</f>
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <f ca="1">VLOOKUP($A102,tblSourceFrequencies[#All],IF($D102&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <f ca="1">VLOOKUP($A102,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <f ca="1">VLOOKUP($A102,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" t="str" cm="1">
+        <f t="array" aca="1" ref="A103" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C103">
+        <f t="shared" ref="C103:C111" si="69">B103</f>
+        <v>2</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="65"/>
+        <v>2</v>
+      </c>
+      <c r="E103">
+        <f ca="1">VLOOKUP($A103,tblSourceFrequencies[#All],IF($D103&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <f ca="1">VLOOKUP($A103,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <f ca="1">VLOOKUP($A103,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" t="str" cm="1">
+        <f t="array" aca="1" ref="A104" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="69"/>
+        <v>3</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="65"/>
+        <v>3</v>
+      </c>
+      <c r="E104">
+        <f ca="1">VLOOKUP($A104,tblSourceFrequencies[#All],IF($D104&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <f ca="1">VLOOKUP($A104,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <f ca="1">VLOOKUP($A104,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" t="str" cm="1">
+        <f t="array" aca="1" ref="A105" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="69"/>
+        <v>4</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="65"/>
+        <v>4</v>
+      </c>
+      <c r="E105">
+        <f ca="1">VLOOKUP($A105,tblSourceFrequencies[#All],IF($D105&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <f ca="1">VLOOKUP($A105,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <f ca="1">VLOOKUP($A105,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" t="str" cm="1">
+        <f t="array" aca="1" ref="A106" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="69"/>
+        <v>5</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="65"/>
+        <v>5</v>
+      </c>
+      <c r="E106">
+        <f ca="1">VLOOKUP($A106,tblSourceFrequencies[#All],IF($D106&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <f ca="1">VLOOKUP($A106,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <f ca="1">VLOOKUP($A106,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" t="str" cm="1">
+        <f t="array" aca="1" ref="A107" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="69"/>
+        <v>6</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="65"/>
+        <v>6</v>
+      </c>
+      <c r="E107">
+        <f ca="1">VLOOKUP($A107,tblSourceFrequencies[#All],IF($D107&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <f ca="1">VLOOKUP($A107,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <f ca="1">VLOOKUP($A107,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" t="str" cm="1">
+        <f t="array" aca="1" ref="A108" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B108">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="69"/>
+        <v>7</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="65"/>
+        <v>7</v>
+      </c>
+      <c r="E108">
+        <f ca="1">VLOOKUP($A108,tblSourceFrequencies[#All],IF($D108&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <f ca="1">VLOOKUP($A108,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <f ca="1">VLOOKUP($A108,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" t="str" cm="1">
+        <f t="array" aca="1" ref="A109" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B109">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="69"/>
+        <v>8</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="65"/>
+        <v>8</v>
+      </c>
+      <c r="E109">
+        <f ca="1">VLOOKUP($A109,tblSourceFrequencies[#All],IF($D109&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <f ca="1">VLOOKUP($A109,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <f ca="1">VLOOKUP($A109,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" t="str" cm="1">
+        <f t="array" aca="1" ref="A110" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B110">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="69"/>
+        <v>9</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="65"/>
+        <v>9</v>
+      </c>
+      <c r="E110">
+        <f ca="1">VLOOKUP($A110,tblSourceFrequencies[#All],IF($D110&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <f ca="1">VLOOKUP($A110,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <f ca="1">VLOOKUP($A110,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" t="str" cm="1">
+        <f t="array" aca="1" ref="A111" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B111">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="69"/>
+        <v>10</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="65"/>
+        <v>10</v>
+      </c>
+      <c r="E111">
+        <f ca="1">VLOOKUP($A111,tblSourceFrequencies[#All],IF($D111&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <f ca="1">VLOOKUP($A111,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <f ca="1">VLOOKUP($A111,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" t="str" cm="1">
+        <f t="array" aca="1" ref="A112" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B112">
+        <f>IF(MOD((ROW()-1),10)=0,10,MOD((ROW()-1),10))</f>
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <f>B112</f>
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <f ca="1">VLOOKUP($A112,tblSourceFrequencies[#All],IF($D112&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <f ca="1">VLOOKUP($A112,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <f ca="1">VLOOKUP($A112,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" t="str" cm="1">
+        <f t="array" aca="1" ref="A113" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B113">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C113">
+        <f t="shared" ref="C113:C121" si="70">B113</f>
+        <v>2</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="65"/>
+        <v>2</v>
+      </c>
+      <c r="E113">
+        <f ca="1">VLOOKUP($A113,tblSourceFrequencies[#All],IF($D113&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <f ca="1">VLOOKUP($A113,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <f ca="1">VLOOKUP($A113,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" t="str" cm="1">
+        <f t="array" aca="1" ref="A114" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B114">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="70"/>
+        <v>3</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="65"/>
+        <v>3</v>
+      </c>
+      <c r="E114">
+        <f ca="1">VLOOKUP($A114,tblSourceFrequencies[#All],IF($D114&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <f ca="1">VLOOKUP($A114,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <f ca="1">VLOOKUP($A114,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" t="str" cm="1">
+        <f t="array" aca="1" ref="A115" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B115">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="70"/>
+        <v>4</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="65"/>
+        <v>4</v>
+      </c>
+      <c r="E115">
+        <f ca="1">VLOOKUP($A115,tblSourceFrequencies[#All],IF($D115&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <f ca="1">VLOOKUP($A115,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <f ca="1">VLOOKUP($A115,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" t="str" cm="1">
+        <f t="array" aca="1" ref="A116" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B116">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="70"/>
+        <v>5</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="65"/>
+        <v>5</v>
+      </c>
+      <c r="E116">
+        <f ca="1">VLOOKUP($A116,tblSourceFrequencies[#All],IF($D116&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <f ca="1">VLOOKUP($A116,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <f ca="1">VLOOKUP($A116,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" t="str" cm="1">
+        <f t="array" aca="1" ref="A117" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B117">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C117">
+        <f t="shared" si="70"/>
+        <v>6</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="65"/>
+        <v>6</v>
+      </c>
+      <c r="E117">
+        <f ca="1">VLOOKUP($A117,tblSourceFrequencies[#All],IF($D117&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <f ca="1">VLOOKUP($A117,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <f ca="1">VLOOKUP($A117,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" t="str" cm="1">
+        <f t="array" aca="1" ref="A118" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B118">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="70"/>
+        <v>7</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="65"/>
+        <v>7</v>
+      </c>
+      <c r="E118">
+        <f ca="1">VLOOKUP($A118,tblSourceFrequencies[#All],IF($D118&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <f ca="1">VLOOKUP($A118,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <f ca="1">VLOOKUP($A118,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" t="str" cm="1">
+        <f t="array" aca="1" ref="A119" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B119">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="70"/>
+        <v>8</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="65"/>
+        <v>8</v>
+      </c>
+      <c r="E119">
+        <f ca="1">VLOOKUP($A119,tblSourceFrequencies[#All],IF($D119&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <f ca="1">VLOOKUP($A119,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <f ca="1">VLOOKUP($A119,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" t="str" cm="1">
+        <f t="array" aca="1" ref="A120" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B120">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="70"/>
+        <v>9</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="65"/>
+        <v>9</v>
+      </c>
+      <c r="E120">
+        <f ca="1">VLOOKUP($A120,tblSourceFrequencies[#All],IF($D120&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <f ca="1">VLOOKUP($A120,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <f ca="1">VLOOKUP($A120,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" t="str" cm="1">
+        <f t="array" aca="1" ref="A121" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B121">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="70"/>
+        <v>10</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="65"/>
+        <v>10</v>
+      </c>
+      <c r="E121">
+        <f ca="1">VLOOKUP($A121,tblSourceFrequencies[#All],IF($D121&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <f ca="1">VLOOKUP($A121,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <f ca="1">VLOOKUP($A121,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" t="str" cm="1">
+        <f t="array" aca="1" ref="A122" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B122">
+        <f>IF(MOD((ROW()-1),10)=0,10,MOD((ROW()-1),10))</f>
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <f>B122</f>
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <f ca="1">VLOOKUP($A122,tblSourceFrequencies[#All],IF($D122&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <f ca="1">VLOOKUP($A122,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <f ca="1">VLOOKUP($A122,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" t="str" cm="1">
+        <f t="array" aca="1" ref="A123" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B123">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C123">
+        <f t="shared" ref="C123:C131" si="71">B123</f>
+        <v>2</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="65"/>
+        <v>2</v>
+      </c>
+      <c r="E123">
+        <f ca="1">VLOOKUP($A123,tblSourceFrequencies[#All],IF($D123&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <f ca="1">VLOOKUP($A123,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <f ca="1">VLOOKUP($A123,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" t="str" cm="1">
+        <f t="array" aca="1" ref="A124" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B124">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C124">
+        <f t="shared" si="71"/>
+        <v>3</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="65"/>
+        <v>3</v>
+      </c>
+      <c r="E124">
+        <f ca="1">VLOOKUP($A124,tblSourceFrequencies[#All],IF($D124&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <f ca="1">VLOOKUP($A124,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <f ca="1">VLOOKUP($A124,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" t="str" cm="1">
+        <f t="array" aca="1" ref="A125" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B125">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C125">
+        <f t="shared" si="71"/>
+        <v>4</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="65"/>
+        <v>4</v>
+      </c>
+      <c r="E125">
+        <f ca="1">VLOOKUP($A125,tblSourceFrequencies[#All],IF($D125&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <f ca="1">VLOOKUP($A125,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <f ca="1">VLOOKUP($A125,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" t="str" cm="1">
+        <f t="array" aca="1" ref="A126" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B126">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C126">
+        <f t="shared" si="71"/>
+        <v>5</v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="65"/>
+        <v>5</v>
+      </c>
+      <c r="E126">
+        <f ca="1">VLOOKUP($A126,tblSourceFrequencies[#All],IF($D126&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <f ca="1">VLOOKUP($A126,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <f ca="1">VLOOKUP($A126,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" t="str" cm="1">
+        <f t="array" aca="1" ref="A127" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B127">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C127">
+        <f t="shared" si="71"/>
+        <v>6</v>
+      </c>
+      <c r="D127">
+        <f t="shared" si="65"/>
+        <v>6</v>
+      </c>
+      <c r="E127">
+        <f ca="1">VLOOKUP($A127,tblSourceFrequencies[#All],IF($D127&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <f ca="1">VLOOKUP($A127,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <f ca="1">VLOOKUP($A127,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" t="str" cm="1">
+        <f t="array" aca="1" ref="A128" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B128">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C128">
+        <f t="shared" si="71"/>
+        <v>7</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="65"/>
+        <v>7</v>
+      </c>
+      <c r="E128">
+        <f ca="1">VLOOKUP($A128,tblSourceFrequencies[#All],IF($D128&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <f ca="1">VLOOKUP($A128,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <f ca="1">VLOOKUP($A128,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" t="str" cm="1">
+        <f t="array" aca="1" ref="A129" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B129">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C129">
+        <f t="shared" si="71"/>
+        <v>8</v>
+      </c>
+      <c r="D129">
+        <f t="shared" si="65"/>
+        <v>8</v>
+      </c>
+      <c r="E129">
+        <f ca="1">VLOOKUP($A129,tblSourceFrequencies[#All],IF($D129&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <f ca="1">VLOOKUP($A129,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <f ca="1">VLOOKUP($A129,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" t="str" cm="1">
+        <f t="array" aca="1" ref="A130" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B130">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C130">
+        <f t="shared" si="71"/>
+        <v>9</v>
+      </c>
+      <c r="D130">
+        <f t="shared" si="65"/>
+        <v>9</v>
+      </c>
+      <c r="E130">
+        <f ca="1">VLOOKUP($A130,tblSourceFrequencies[#All],IF($D130&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <f ca="1">VLOOKUP($A130,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <f ca="1">VLOOKUP($A130,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" t="str" cm="1">
+        <f t="array" aca="1" ref="A131" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B131">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C131">
+        <f t="shared" si="71"/>
+        <v>10</v>
+      </c>
+      <c r="D131">
+        <f t="shared" si="65"/>
+        <v>10</v>
+      </c>
+      <c r="E131">
+        <f ca="1">VLOOKUP($A131,tblSourceFrequencies[#All],IF($D131&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <f ca="1">VLOOKUP($A131,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <f ca="1">VLOOKUP($A131,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" t="str" cm="1">
+        <f t="array" aca="1" ref="A132" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B132">
+        <f>IF(MOD((ROW()-1),10)=0,10,MOD((ROW()-1),10))</f>
+        <v>1</v>
+      </c>
+      <c r="C132">
+        <f>B132</f>
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="E132">
+        <f ca="1">VLOOKUP($A132,tblSourceFrequencies[#All],IF($D132&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <f ca="1">VLOOKUP($A132,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <f ca="1">VLOOKUP($A132,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" t="str" cm="1">
+        <f t="array" aca="1" ref="A133" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B133">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C133">
+        <f t="shared" ref="C133:C141" si="72">B133</f>
+        <v>2</v>
+      </c>
+      <c r="D133">
+        <f t="shared" si="65"/>
+        <v>2</v>
+      </c>
+      <c r="E133">
+        <f ca="1">VLOOKUP($A133,tblSourceFrequencies[#All],IF($D133&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <f ca="1">VLOOKUP($A133,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <f ca="1">VLOOKUP($A133,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" t="str" cm="1">
+        <f t="array" aca="1" ref="A134" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B134">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C134">
+        <f t="shared" si="72"/>
+        <v>3</v>
+      </c>
+      <c r="D134">
+        <f t="shared" si="65"/>
+        <v>3</v>
+      </c>
+      <c r="E134">
+        <f ca="1">VLOOKUP($A134,tblSourceFrequencies[#All],IF($D134&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <f ca="1">VLOOKUP($A134,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <f ca="1">VLOOKUP($A134,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" t="str" cm="1">
+        <f t="array" aca="1" ref="A135" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B135">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C135">
+        <f t="shared" si="72"/>
+        <v>4</v>
+      </c>
+      <c r="D135">
+        <f t="shared" si="65"/>
+        <v>4</v>
+      </c>
+      <c r="E135">
+        <f ca="1">VLOOKUP($A135,tblSourceFrequencies[#All],IF($D135&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <f ca="1">VLOOKUP($A135,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <f ca="1">VLOOKUP($A135,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" t="str" cm="1">
+        <f t="array" aca="1" ref="A136" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B136">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C136">
+        <f t="shared" si="72"/>
+        <v>5</v>
+      </c>
+      <c r="D136">
+        <f t="shared" si="65"/>
+        <v>5</v>
+      </c>
+      <c r="E136">
+        <f ca="1">VLOOKUP($A136,tblSourceFrequencies[#All],IF($D136&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <f ca="1">VLOOKUP($A136,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <f ca="1">VLOOKUP($A136,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" t="str" cm="1">
+        <f t="array" aca="1" ref="A137" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B137">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C137">
+        <f t="shared" si="72"/>
+        <v>6</v>
+      </c>
+      <c r="D137">
+        <f t="shared" si="65"/>
+        <v>6</v>
+      </c>
+      <c r="E137">
+        <f ca="1">VLOOKUP($A137,tblSourceFrequencies[#All],IF($D137&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <f ca="1">VLOOKUP($A137,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <f ca="1">VLOOKUP($A137,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" t="str" cm="1">
+        <f t="array" aca="1" ref="A138" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B138">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C138">
+        <f t="shared" si="72"/>
+        <v>7</v>
+      </c>
+      <c r="D138">
+        <f t="shared" si="65"/>
+        <v>7</v>
+      </c>
+      <c r="E138">
+        <f ca="1">VLOOKUP($A138,tblSourceFrequencies[#All],IF($D138&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <f ca="1">VLOOKUP($A138,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <f ca="1">VLOOKUP($A138,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" t="str" cm="1">
+        <f t="array" aca="1" ref="A139" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B139">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C139">
+        <f t="shared" si="72"/>
+        <v>8</v>
+      </c>
+      <c r="D139">
+        <f t="shared" si="65"/>
+        <v>8</v>
+      </c>
+      <c r="E139">
+        <f ca="1">VLOOKUP($A139,tblSourceFrequencies[#All],IF($D139&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <f ca="1">VLOOKUP($A139,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <f ca="1">VLOOKUP($A139,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" t="str" cm="1">
+        <f t="array" aca="1" ref="A140" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B140">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C140">
+        <f t="shared" si="72"/>
+        <v>9</v>
+      </c>
+      <c r="D140">
+        <f t="shared" si="65"/>
+        <v>9</v>
+      </c>
+      <c r="E140">
+        <f ca="1">VLOOKUP($A140,tblSourceFrequencies[#All],IF($D140&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <f ca="1">VLOOKUP($A140,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <f ca="1">VLOOKUP($A140,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" t="str" cm="1">
+        <f t="array" aca="1" ref="A141" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B141">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C141">
+        <f t="shared" si="72"/>
+        <v>10</v>
+      </c>
+      <c r="D141">
+        <f t="shared" si="65"/>
+        <v>10</v>
+      </c>
+      <c r="E141">
+        <f ca="1">VLOOKUP($A141,tblSourceFrequencies[#All],IF($D141&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <f ca="1">VLOOKUP($A141,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <f ca="1">VLOOKUP($A141,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142" t="str" cm="1">
+        <f t="array" aca="1" ref="A142" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B142">
+        <f>IF(MOD((ROW()-1),10)=0,10,MOD((ROW()-1),10))</f>
+        <v>1</v>
+      </c>
+      <c r="C142">
+        <f>B142</f>
+        <v>1</v>
+      </c>
+      <c r="D142">
+        <f t="shared" ref="D142:D211" si="73">C142</f>
+        <v>1</v>
+      </c>
+      <c r="E142">
+        <f ca="1">VLOOKUP($A142,tblSourceFrequencies[#All],IF($D142&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <f ca="1">VLOOKUP($A142,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <f ca="1">VLOOKUP($A142,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143" t="str" cm="1">
+        <f t="array" aca="1" ref="A143" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B143">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C143">
+        <f t="shared" ref="C143:C151" si="74">B143</f>
+        <v>2</v>
+      </c>
+      <c r="D143">
+        <f t="shared" si="73"/>
+        <v>2</v>
+      </c>
+      <c r="E143">
+        <f ca="1">VLOOKUP($A143,tblSourceFrequencies[#All],IF($D143&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <f ca="1">VLOOKUP($A143,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <f ca="1">VLOOKUP($A143,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144" t="str" cm="1">
+        <f t="array" aca="1" ref="A144" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B144">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C144">
+        <f t="shared" si="74"/>
+        <v>3</v>
+      </c>
+      <c r="D144">
+        <f t="shared" si="73"/>
+        <v>3</v>
+      </c>
+      <c r="E144">
+        <f ca="1">VLOOKUP($A144,tblSourceFrequencies[#All],IF($D144&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <f ca="1">VLOOKUP($A144,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <f ca="1">VLOOKUP($A144,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145" t="str" cm="1">
+        <f t="array" aca="1" ref="A145" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B145">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C145">
+        <f t="shared" si="74"/>
+        <v>4</v>
+      </c>
+      <c r="D145">
+        <f t="shared" si="73"/>
+        <v>4</v>
+      </c>
+      <c r="E145">
+        <f ca="1">VLOOKUP($A145,tblSourceFrequencies[#All],IF($D145&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <f ca="1">VLOOKUP($A145,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <f ca="1">VLOOKUP($A145,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" t="str" cm="1">
+        <f t="array" aca="1" ref="A146" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B146">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C146">
+        <f t="shared" si="74"/>
+        <v>5</v>
+      </c>
+      <c r="D146">
+        <f t="shared" si="73"/>
+        <v>5</v>
+      </c>
+      <c r="E146">
+        <f ca="1">VLOOKUP($A146,tblSourceFrequencies[#All],IF($D146&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <f ca="1">VLOOKUP($A146,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <f ca="1">VLOOKUP($A146,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" t="str" cm="1">
+        <f t="array" aca="1" ref="A147" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B147">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C147">
+        <f t="shared" si="74"/>
+        <v>6</v>
+      </c>
+      <c r="D147">
+        <f t="shared" si="73"/>
+        <v>6</v>
+      </c>
+      <c r="E147">
+        <f ca="1">VLOOKUP($A147,tblSourceFrequencies[#All],IF($D147&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <f ca="1">VLOOKUP($A147,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <f ca="1">VLOOKUP($A147,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" t="str" cm="1">
+        <f t="array" aca="1" ref="A148" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B148">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C148">
+        <f t="shared" si="74"/>
+        <v>7</v>
+      </c>
+      <c r="D148">
+        <f t="shared" si="73"/>
+        <v>7</v>
+      </c>
+      <c r="E148">
+        <f ca="1">VLOOKUP($A148,tblSourceFrequencies[#All],IF($D148&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <f ca="1">VLOOKUP($A148,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <f ca="1">VLOOKUP($A148,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" t="str" cm="1">
+        <f t="array" aca="1" ref="A149" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B149">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C149">
+        <f t="shared" si="74"/>
+        <v>8</v>
+      </c>
+      <c r="D149">
+        <f t="shared" si="73"/>
+        <v>8</v>
+      </c>
+      <c r="E149">
+        <f ca="1">VLOOKUP($A149,tblSourceFrequencies[#All],IF($D149&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <f ca="1">VLOOKUP($A149,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <f ca="1">VLOOKUP($A149,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" t="str" cm="1">
+        <f t="array" aca="1" ref="A150" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B150">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C150">
+        <f t="shared" si="74"/>
+        <v>9</v>
+      </c>
+      <c r="D150">
+        <f t="shared" si="73"/>
+        <v>9</v>
+      </c>
+      <c r="E150">
+        <f ca="1">VLOOKUP($A150,tblSourceFrequencies[#All],IF($D150&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <f ca="1">VLOOKUP($A150,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <f ca="1">VLOOKUP($A150,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" t="str" cm="1">
+        <f t="array" aca="1" ref="A151" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B151">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C151">
+        <f t="shared" si="74"/>
+        <v>10</v>
+      </c>
+      <c r="D151">
+        <f t="shared" si="73"/>
+        <v>10</v>
+      </c>
+      <c r="E151">
+        <f ca="1">VLOOKUP($A151,tblSourceFrequencies[#All],IF($D151&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <f ca="1">VLOOKUP($A151,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <f ca="1">VLOOKUP($A151,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" t="str" cm="1">
+        <f t="array" aca="1" ref="A152" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B152">
+        <f>IF(MOD((ROW()-1),10)=0,10,MOD((ROW()-1),10))</f>
+        <v>1</v>
+      </c>
+      <c r="C152">
+        <f>B152</f>
+        <v>1</v>
+      </c>
+      <c r="D152">
+        <f t="shared" si="73"/>
+        <v>1</v>
+      </c>
+      <c r="E152">
+        <f ca="1">VLOOKUP($A152,tblSourceFrequencies[#All],IF($D152&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <f ca="1">VLOOKUP($A152,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <f ca="1">VLOOKUP($A152,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153" t="str" cm="1">
+        <f t="array" aca="1" ref="A153" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B153">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C153">
+        <f t="shared" ref="C153:C161" si="75">B153</f>
+        <v>2</v>
+      </c>
+      <c r="D153">
+        <f t="shared" si="73"/>
+        <v>2</v>
+      </c>
+      <c r="E153">
+        <f ca="1">VLOOKUP($A153,tblSourceFrequencies[#All],IF($D153&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <f ca="1">VLOOKUP($A153,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <f ca="1">VLOOKUP($A153,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154" t="str" cm="1">
+        <f t="array" aca="1" ref="A154" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B154">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C154">
+        <f t="shared" si="75"/>
+        <v>3</v>
+      </c>
+      <c r="D154">
+        <f t="shared" si="73"/>
+        <v>3</v>
+      </c>
+      <c r="E154">
+        <f ca="1">VLOOKUP($A154,tblSourceFrequencies[#All],IF($D154&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <f ca="1">VLOOKUP($A154,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <f ca="1">VLOOKUP($A154,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155" t="str" cm="1">
+        <f t="array" aca="1" ref="A155" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B155">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C155">
+        <f t="shared" si="75"/>
+        <v>4</v>
+      </c>
+      <c r="D155">
+        <f t="shared" si="73"/>
+        <v>4</v>
+      </c>
+      <c r="E155">
+        <f ca="1">VLOOKUP($A155,tblSourceFrequencies[#All],IF($D155&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <f ca="1">VLOOKUP($A155,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <f ca="1">VLOOKUP($A155,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156" t="str" cm="1">
+        <f t="array" aca="1" ref="A156" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B156">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C156">
+        <f t="shared" si="75"/>
+        <v>5</v>
+      </c>
+      <c r="D156">
+        <f t="shared" si="73"/>
+        <v>5</v>
+      </c>
+      <c r="E156">
+        <f ca="1">VLOOKUP($A156,tblSourceFrequencies[#All],IF($D156&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <f ca="1">VLOOKUP($A156,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <f ca="1">VLOOKUP($A156,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157" t="str" cm="1">
+        <f t="array" aca="1" ref="A157" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B157">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C157">
+        <f t="shared" si="75"/>
+        <v>6</v>
+      </c>
+      <c r="D157">
+        <f t="shared" si="73"/>
+        <v>6</v>
+      </c>
+      <c r="E157">
+        <f ca="1">VLOOKUP($A157,tblSourceFrequencies[#All],IF($D157&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <f ca="1">VLOOKUP($A157,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <f ca="1">VLOOKUP($A157,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158" t="str" cm="1">
+        <f t="array" aca="1" ref="A158" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B158">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C158">
+        <f t="shared" si="75"/>
+        <v>7</v>
+      </c>
+      <c r="D158">
+        <f t="shared" si="73"/>
+        <v>7</v>
+      </c>
+      <c r="E158">
+        <f ca="1">VLOOKUP($A158,tblSourceFrequencies[#All],IF($D158&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <f ca="1">VLOOKUP($A158,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <f ca="1">VLOOKUP($A158,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159" t="str" cm="1">
+        <f t="array" aca="1" ref="A159" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B159">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C159">
+        <f t="shared" si="75"/>
+        <v>8</v>
+      </c>
+      <c r="D159">
+        <f t="shared" si="73"/>
+        <v>8</v>
+      </c>
+      <c r="E159">
+        <f ca="1">VLOOKUP($A159,tblSourceFrequencies[#All],IF($D159&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <f ca="1">VLOOKUP($A159,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <f ca="1">VLOOKUP($A159,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160" t="str" cm="1">
+        <f t="array" aca="1" ref="A160" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B160">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C160">
+        <f t="shared" si="75"/>
+        <v>9</v>
+      </c>
+      <c r="D160">
+        <f t="shared" si="73"/>
+        <v>9</v>
+      </c>
+      <c r="E160">
+        <f ca="1">VLOOKUP($A160,tblSourceFrequencies[#All],IF($D160&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <f ca="1">VLOOKUP($A160,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <f ca="1">VLOOKUP($A160,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161" t="str" cm="1">
+        <f t="array" aca="1" ref="A161" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B161">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C161">
+        <f t="shared" si="75"/>
+        <v>10</v>
+      </c>
+      <c r="D161">
+        <f t="shared" si="73"/>
+        <v>10</v>
+      </c>
+      <c r="E161">
+        <f ca="1">VLOOKUP($A161,tblSourceFrequencies[#All],IF($D161&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <f ca="1">VLOOKUP($A161,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <f ca="1">VLOOKUP($A161,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162" t="str" cm="1">
+        <f t="array" aca="1" ref="A162" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B162">
+        <f>IF(MOD((ROW()-1),10)=0,10,MOD((ROW()-1),10))</f>
+        <v>1</v>
+      </c>
+      <c r="C162">
+        <f>B162</f>
+        <v>1</v>
+      </c>
+      <c r="D162">
+        <f t="shared" si="73"/>
+        <v>1</v>
+      </c>
+      <c r="E162">
+        <f ca="1">VLOOKUP($A162,tblSourceFrequencies[#All],IF($D162&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <f ca="1">VLOOKUP($A162,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <f ca="1">VLOOKUP($A162,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163" t="str" cm="1">
+        <f t="array" aca="1" ref="A163" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B163">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C163">
+        <f t="shared" ref="C163:C171" si="76">B163</f>
+        <v>2</v>
+      </c>
+      <c r="D163">
+        <f t="shared" si="73"/>
+        <v>2</v>
+      </c>
+      <c r="E163">
+        <f ca="1">VLOOKUP($A163,tblSourceFrequencies[#All],IF($D163&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <f ca="1">VLOOKUP($A163,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <f ca="1">VLOOKUP($A163,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164" t="str" cm="1">
+        <f t="array" aca="1" ref="A164" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B164">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C164">
+        <f t="shared" si="76"/>
+        <v>3</v>
+      </c>
+      <c r="D164">
+        <f t="shared" si="73"/>
+        <v>3</v>
+      </c>
+      <c r="E164">
+        <f ca="1">VLOOKUP($A164,tblSourceFrequencies[#All],IF($D164&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <f ca="1">VLOOKUP($A164,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <f ca="1">VLOOKUP($A164,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165" t="str" cm="1">
+        <f t="array" aca="1" ref="A165" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B165">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C165">
+        <f t="shared" si="76"/>
+        <v>4</v>
+      </c>
+      <c r="D165">
+        <f t="shared" si="73"/>
+        <v>4</v>
+      </c>
+      <c r="E165">
+        <f ca="1">VLOOKUP($A165,tblSourceFrequencies[#All],IF($D165&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <f ca="1">VLOOKUP($A165,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <f ca="1">VLOOKUP($A165,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166" t="str" cm="1">
+        <f t="array" aca="1" ref="A166" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B166">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C166">
+        <f t="shared" si="76"/>
+        <v>5</v>
+      </c>
+      <c r="D166">
+        <f t="shared" si="73"/>
+        <v>5</v>
+      </c>
+      <c r="E166">
+        <f ca="1">VLOOKUP($A166,tblSourceFrequencies[#All],IF($D166&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <f ca="1">VLOOKUP($A166,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <f ca="1">VLOOKUP($A166,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167" t="str" cm="1">
+        <f t="array" aca="1" ref="A167" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B167">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C167">
+        <f t="shared" si="76"/>
+        <v>6</v>
+      </c>
+      <c r="D167">
+        <f t="shared" si="73"/>
+        <v>6</v>
+      </c>
+      <c r="E167">
+        <f ca="1">VLOOKUP($A167,tblSourceFrequencies[#All],IF($D167&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <f ca="1">VLOOKUP($A167,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <f ca="1">VLOOKUP($A167,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168" t="str" cm="1">
+        <f t="array" aca="1" ref="A168" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B168">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C168">
+        <f t="shared" si="76"/>
+        <v>7</v>
+      </c>
+      <c r="D168">
+        <f t="shared" si="73"/>
+        <v>7</v>
+      </c>
+      <c r="E168">
+        <f ca="1">VLOOKUP($A168,tblSourceFrequencies[#All],IF($D168&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <f ca="1">VLOOKUP($A168,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <f ca="1">VLOOKUP($A168,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169" t="str" cm="1">
+        <f t="array" aca="1" ref="A169" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B169">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C169">
+        <f t="shared" si="76"/>
+        <v>8</v>
+      </c>
+      <c r="D169">
+        <f t="shared" si="73"/>
+        <v>8</v>
+      </c>
+      <c r="E169">
+        <f ca="1">VLOOKUP($A169,tblSourceFrequencies[#All],IF($D169&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <f ca="1">VLOOKUP($A169,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <f ca="1">VLOOKUP($A169,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170" t="str" cm="1">
+        <f t="array" aca="1" ref="A170" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B170">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C170">
+        <f t="shared" si="76"/>
+        <v>9</v>
+      </c>
+      <c r="D170">
+        <f t="shared" si="73"/>
+        <v>9</v>
+      </c>
+      <c r="E170">
+        <f ca="1">VLOOKUP($A170,tblSourceFrequencies[#All],IF($D170&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <f ca="1">VLOOKUP($A170,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <f ca="1">VLOOKUP($A170,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171" t="str" cm="1">
+        <f t="array" aca="1" ref="A171" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B171">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C171">
+        <f t="shared" si="76"/>
+        <v>10</v>
+      </c>
+      <c r="D171">
+        <f t="shared" si="73"/>
+        <v>10</v>
+      </c>
+      <c r="E171">
+        <f ca="1">VLOOKUP($A171,tblSourceFrequencies[#All],IF($D171&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <f ca="1">VLOOKUP($A171,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <f ca="1">VLOOKUP($A171,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172" t="str" cm="1">
+        <f t="array" aca="1" ref="A172" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B172">
+        <f>IF(MOD((ROW()-1),10)=0,10,MOD((ROW()-1),10))</f>
+        <v>1</v>
+      </c>
+      <c r="C172">
+        <f>B172</f>
+        <v>1</v>
+      </c>
+      <c r="D172">
+        <f t="shared" si="73"/>
+        <v>1</v>
+      </c>
+      <c r="E172">
+        <f ca="1">VLOOKUP($A172,tblSourceFrequencies[#All],IF($D172&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <f ca="1">VLOOKUP($A172,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <f ca="1">VLOOKUP($A172,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A173" t="str" cm="1">
+        <f t="array" aca="1" ref="A173" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B173">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C173">
+        <f t="shared" ref="C173:C181" si="77">B173</f>
+        <v>2</v>
+      </c>
+      <c r="D173">
+        <f t="shared" si="73"/>
+        <v>2</v>
+      </c>
+      <c r="E173">
+        <f ca="1">VLOOKUP($A173,tblSourceFrequencies[#All],IF($D173&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <f ca="1">VLOOKUP($A173,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <f ca="1">VLOOKUP($A173,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A174" t="str" cm="1">
+        <f t="array" aca="1" ref="A174" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B174">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C174">
+        <f t="shared" si="77"/>
+        <v>3</v>
+      </c>
+      <c r="D174">
+        <f t="shared" si="73"/>
+        <v>3</v>
+      </c>
+      <c r="E174">
+        <f ca="1">VLOOKUP($A174,tblSourceFrequencies[#All],IF($D174&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <f ca="1">VLOOKUP($A174,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <f ca="1">VLOOKUP($A174,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A175" t="str" cm="1">
+        <f t="array" aca="1" ref="A175" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B175">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C175">
+        <f t="shared" si="77"/>
+        <v>4</v>
+      </c>
+      <c r="D175">
+        <f t="shared" si="73"/>
+        <v>4</v>
+      </c>
+      <c r="E175">
+        <f ca="1">VLOOKUP($A175,tblSourceFrequencies[#All],IF($D175&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <f ca="1">VLOOKUP($A175,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <f ca="1">VLOOKUP($A175,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A176" t="str" cm="1">
+        <f t="array" aca="1" ref="A176" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B176">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C176">
+        <f t="shared" si="77"/>
+        <v>5</v>
+      </c>
+      <c r="D176">
+        <f t="shared" si="73"/>
+        <v>5</v>
+      </c>
+      <c r="E176">
+        <f ca="1">VLOOKUP($A176,tblSourceFrequencies[#All],IF($D176&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <f ca="1">VLOOKUP($A176,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <f ca="1">VLOOKUP($A176,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A177" t="str" cm="1">
+        <f t="array" aca="1" ref="A177" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B177">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C177">
+        <f t="shared" si="77"/>
+        <v>6</v>
+      </c>
+      <c r="D177">
+        <f t="shared" si="73"/>
+        <v>6</v>
+      </c>
+      <c r="E177">
+        <f ca="1">VLOOKUP($A177,tblSourceFrequencies[#All],IF($D177&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <f ca="1">VLOOKUP($A177,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <f ca="1">VLOOKUP($A177,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A178" t="str" cm="1">
+        <f t="array" aca="1" ref="A178" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B178">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C178">
+        <f t="shared" si="77"/>
+        <v>7</v>
+      </c>
+      <c r="D178">
+        <f t="shared" si="73"/>
+        <v>7</v>
+      </c>
+      <c r="E178">
+        <f ca="1">VLOOKUP($A178,tblSourceFrequencies[#All],IF($D178&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <f ca="1">VLOOKUP($A178,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <f ca="1">VLOOKUP($A178,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A179" t="str" cm="1">
+        <f t="array" aca="1" ref="A179" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B179">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C179">
+        <f t="shared" si="77"/>
+        <v>8</v>
+      </c>
+      <c r="D179">
+        <f t="shared" si="73"/>
+        <v>8</v>
+      </c>
+      <c r="E179">
+        <f ca="1">VLOOKUP($A179,tblSourceFrequencies[#All],IF($D179&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <f ca="1">VLOOKUP($A179,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <f ca="1">VLOOKUP($A179,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A180" t="str" cm="1">
+        <f t="array" aca="1" ref="A180" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B180">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C180">
+        <f t="shared" si="77"/>
+        <v>9</v>
+      </c>
+      <c r="D180">
+        <f t="shared" si="73"/>
+        <v>9</v>
+      </c>
+      <c r="E180">
+        <f ca="1">VLOOKUP($A180,tblSourceFrequencies[#All],IF($D180&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <f ca="1">VLOOKUP($A180,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <f ca="1">VLOOKUP($A180,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A181" t="str" cm="1">
+        <f t="array" aca="1" ref="A181" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B181">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C181">
+        <f t="shared" si="77"/>
+        <v>10</v>
+      </c>
+      <c r="D181">
+        <f t="shared" si="73"/>
+        <v>10</v>
+      </c>
+      <c r="E181">
+        <f ca="1">VLOOKUP($A181,tblSourceFrequencies[#All],IF($D181&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <f ca="1">VLOOKUP($A181,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <f ca="1">VLOOKUP($A181,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A182" t="str" cm="1">
+        <f t="array" aca="1" ref="A182" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B182">
+        <f>IF(MOD((ROW()-1),10)=0,10,MOD((ROW()-1),10))</f>
+        <v>1</v>
+      </c>
+      <c r="C182">
+        <f>B182</f>
+        <v>1</v>
+      </c>
+      <c r="D182">
+        <f t="shared" si="73"/>
+        <v>1</v>
+      </c>
+      <c r="E182">
+        <f ca="1">VLOOKUP($A182,tblSourceFrequencies[#All],IF($D182&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <f ca="1">VLOOKUP($A182,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <f ca="1">VLOOKUP($A182,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A183" t="str" cm="1">
+        <f t="array" aca="1" ref="A183" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B183">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C183">
+        <f t="shared" ref="C183:C191" si="78">B183</f>
+        <v>2</v>
+      </c>
+      <c r="D183">
+        <f t="shared" si="73"/>
+        <v>2</v>
+      </c>
+      <c r="E183">
+        <f ca="1">VLOOKUP($A183,tblSourceFrequencies[#All],IF($D183&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <f ca="1">VLOOKUP($A183,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <f ca="1">VLOOKUP($A183,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A184" t="str" cm="1">
+        <f t="array" aca="1" ref="A184" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B184">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C184">
+        <f t="shared" si="78"/>
+        <v>3</v>
+      </c>
+      <c r="D184">
+        <f t="shared" si="73"/>
+        <v>3</v>
+      </c>
+      <c r="E184">
+        <f ca="1">VLOOKUP($A184,tblSourceFrequencies[#All],IF($D184&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <f ca="1">VLOOKUP($A184,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <f ca="1">VLOOKUP($A184,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A185" t="str" cm="1">
+        <f t="array" aca="1" ref="A185" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B185">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C185">
+        <f t="shared" si="78"/>
+        <v>4</v>
+      </c>
+      <c r="D185">
+        <f t="shared" si="73"/>
+        <v>4</v>
+      </c>
+      <c r="E185">
+        <f ca="1">VLOOKUP($A185,tblSourceFrequencies[#All],IF($D185&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <f ca="1">VLOOKUP($A185,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <f ca="1">VLOOKUP($A185,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A186" t="str" cm="1">
+        <f t="array" aca="1" ref="A186" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B186">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C186">
+        <f t="shared" si="78"/>
+        <v>5</v>
+      </c>
+      <c r="D186">
+        <f t="shared" si="73"/>
+        <v>5</v>
+      </c>
+      <c r="E186">
+        <f ca="1">VLOOKUP($A186,tblSourceFrequencies[#All],IF($D186&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <f ca="1">VLOOKUP($A186,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <f ca="1">VLOOKUP($A186,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A187" t="str" cm="1">
+        <f t="array" aca="1" ref="A187" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B187">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C187">
+        <f t="shared" si="78"/>
+        <v>6</v>
+      </c>
+      <c r="D187">
+        <f t="shared" si="73"/>
+        <v>6</v>
+      </c>
+      <c r="E187">
+        <f ca="1">VLOOKUP($A187,tblSourceFrequencies[#All],IF($D187&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <f ca="1">VLOOKUP($A187,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <f ca="1">VLOOKUP($A187,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A188" t="str" cm="1">
+        <f t="array" aca="1" ref="A188" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B188">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C188">
+        <f t="shared" si="78"/>
+        <v>7</v>
+      </c>
+      <c r="D188">
+        <f t="shared" si="73"/>
+        <v>7</v>
+      </c>
+      <c r="E188">
+        <f ca="1">VLOOKUP($A188,tblSourceFrequencies[#All],IF($D188&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <f ca="1">VLOOKUP($A188,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <f ca="1">VLOOKUP($A188,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A189" t="str" cm="1">
+        <f t="array" aca="1" ref="A189" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B189">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C189">
+        <f t="shared" si="78"/>
+        <v>8</v>
+      </c>
+      <c r="D189">
+        <f t="shared" si="73"/>
+        <v>8</v>
+      </c>
+      <c r="E189">
+        <f ca="1">VLOOKUP($A189,tblSourceFrequencies[#All],IF($D189&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <f ca="1">VLOOKUP($A189,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <f ca="1">VLOOKUP($A189,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A190" t="str" cm="1">
+        <f t="array" aca="1" ref="A190" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B190">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C190">
+        <f t="shared" si="78"/>
+        <v>9</v>
+      </c>
+      <c r="D190">
+        <f t="shared" si="73"/>
+        <v>9</v>
+      </c>
+      <c r="E190">
+        <f ca="1">VLOOKUP($A190,tblSourceFrequencies[#All],IF($D190&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <f ca="1">VLOOKUP($A190,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G190">
+        <f ca="1">VLOOKUP($A190,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A191" t="str" cm="1">
+        <f t="array" aca="1" ref="A191" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B191">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C191">
+        <f t="shared" si="78"/>
+        <v>10</v>
+      </c>
+      <c r="D191">
+        <f t="shared" si="73"/>
+        <v>10</v>
+      </c>
+      <c r="E191">
+        <f ca="1">VLOOKUP($A191,tblSourceFrequencies[#All],IF($D191&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <f ca="1">VLOOKUP($A191,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G191">
+        <f ca="1">VLOOKUP($A191,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A192" t="str" cm="1">
+        <f t="array" aca="1" ref="A192" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B192">
+        <f>IF(MOD((ROW()-1),10)=0,10,MOD((ROW()-1),10))</f>
+        <v>1</v>
+      </c>
+      <c r="C192">
+        <f>B192</f>
+        <v>1</v>
+      </c>
+      <c r="D192">
+        <f t="shared" si="73"/>
+        <v>1</v>
+      </c>
+      <c r="E192">
+        <f ca="1">VLOOKUP($A192,tblSourceFrequencies[#All],IF($D192&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <f ca="1">VLOOKUP($A192,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G192">
+        <f ca="1">VLOOKUP($A192,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A193" t="str" cm="1">
+        <f t="array" aca="1" ref="A193" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B193">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C193">
+        <f t="shared" ref="C193:C201" si="79">B193</f>
+        <v>2</v>
+      </c>
+      <c r="D193">
+        <f t="shared" si="73"/>
+        <v>2</v>
+      </c>
+      <c r="E193">
+        <f ca="1">VLOOKUP($A193,tblSourceFrequencies[#All],IF($D193&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <f ca="1">VLOOKUP($A193,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G193">
+        <f ca="1">VLOOKUP($A193,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A194" t="str" cm="1">
+        <f t="array" aca="1" ref="A194" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B194">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C194">
+        <f t="shared" si="79"/>
+        <v>3</v>
+      </c>
+      <c r="D194">
+        <f t="shared" si="73"/>
+        <v>3</v>
+      </c>
+      <c r="E194">
+        <f ca="1">VLOOKUP($A194,tblSourceFrequencies[#All],IF($D194&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F194">
+        <f ca="1">VLOOKUP($A194,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G194">
+        <f ca="1">VLOOKUP($A194,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A195" t="str" cm="1">
+        <f t="array" aca="1" ref="A195" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B195">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C195">
+        <f t="shared" si="79"/>
+        <v>4</v>
+      </c>
+      <c r="D195">
+        <f t="shared" si="73"/>
+        <v>4</v>
+      </c>
+      <c r="E195">
+        <f ca="1">VLOOKUP($A195,tblSourceFrequencies[#All],IF($D195&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <f ca="1">VLOOKUP($A195,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G195">
+        <f ca="1">VLOOKUP($A195,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A196" t="str" cm="1">
+        <f t="array" aca="1" ref="A196" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B196">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C196">
+        <f t="shared" si="79"/>
+        <v>5</v>
+      </c>
+      <c r="D196">
+        <f t="shared" si="73"/>
+        <v>5</v>
+      </c>
+      <c r="E196">
+        <f ca="1">VLOOKUP($A196,tblSourceFrequencies[#All],IF($D196&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F196">
+        <f ca="1">VLOOKUP($A196,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G196">
+        <f ca="1">VLOOKUP($A196,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A197" t="str" cm="1">
+        <f t="array" aca="1" ref="A197" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B197">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C197">
+        <f t="shared" si="79"/>
+        <v>6</v>
+      </c>
+      <c r="D197">
+        <f t="shared" si="73"/>
+        <v>6</v>
+      </c>
+      <c r="E197">
+        <f ca="1">VLOOKUP($A197,tblSourceFrequencies[#All],IF($D197&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <f ca="1">VLOOKUP($A197,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G197">
+        <f ca="1">VLOOKUP($A197,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A198" t="str" cm="1">
+        <f t="array" aca="1" ref="A198" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B198">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C198">
+        <f t="shared" si="79"/>
+        <v>7</v>
+      </c>
+      <c r="D198">
+        <f t="shared" si="73"/>
+        <v>7</v>
+      </c>
+      <c r="E198">
+        <f ca="1">VLOOKUP($A198,tblSourceFrequencies[#All],IF($D198&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <f ca="1">VLOOKUP($A198,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G198">
+        <f ca="1">VLOOKUP($A198,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A199" t="str" cm="1">
+        <f t="array" aca="1" ref="A199" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B199">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C199">
+        <f t="shared" si="79"/>
+        <v>8</v>
+      </c>
+      <c r="D199">
+        <f t="shared" si="73"/>
+        <v>8</v>
+      </c>
+      <c r="E199">
+        <f ca="1">VLOOKUP($A199,tblSourceFrequencies[#All],IF($D199&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <f ca="1">VLOOKUP($A199,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G199">
+        <f ca="1">VLOOKUP($A199,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A200" t="str" cm="1">
+        <f t="array" aca="1" ref="A200" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B200">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C200">
+        <f t="shared" si="79"/>
+        <v>9</v>
+      </c>
+      <c r="D200">
+        <f t="shared" si="73"/>
+        <v>9</v>
+      </c>
+      <c r="E200">
+        <f ca="1">VLOOKUP($A200,tblSourceFrequencies[#All],IF($D200&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <f ca="1">VLOOKUP($A200,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G200">
+        <f ca="1">VLOOKUP($A200,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A201" t="str" cm="1">
+        <f t="array" aca="1" ref="A201" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B201">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C201">
+        <f t="shared" si="79"/>
+        <v>10</v>
+      </c>
+      <c r="D201">
+        <f t="shared" si="73"/>
+        <v>10</v>
+      </c>
+      <c r="E201">
+        <f ca="1">VLOOKUP($A201,tblSourceFrequencies[#All],IF($D201&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <f ca="1">VLOOKUP($A201,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G201">
+        <f ca="1">VLOOKUP($A201,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A202" t="str" cm="1">
+        <f t="array" aca="1" ref="A202" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B202">
+        <f>IF(MOD((ROW()-1),10)=0,10,MOD((ROW()-1),10))</f>
+        <v>1</v>
+      </c>
+      <c r="C202">
+        <f>B202</f>
+        <v>1</v>
+      </c>
+      <c r="D202">
+        <f t="shared" si="73"/>
+        <v>1</v>
+      </c>
+      <c r="E202">
+        <f ca="1">VLOOKUP($A202,tblSourceFrequencies[#All],IF($D202&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F202">
+        <f ca="1">VLOOKUP($A202,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G202">
+        <f ca="1">VLOOKUP($A202,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A203" t="str" cm="1">
+        <f t="array" aca="1" ref="A203" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B203">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C203">
+        <f t="shared" ref="C203:C211" si="80">B203</f>
+        <v>2</v>
+      </c>
+      <c r="D203">
+        <f t="shared" si="73"/>
+        <v>2</v>
+      </c>
+      <c r="E203">
+        <f ca="1">VLOOKUP($A203,tblSourceFrequencies[#All],IF($D203&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F203">
+        <f ca="1">VLOOKUP($A203,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G203">
+        <f ca="1">VLOOKUP($A203,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A204" t="str" cm="1">
+        <f t="array" aca="1" ref="A204" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B204">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C204">
+        <f t="shared" si="80"/>
+        <v>3</v>
+      </c>
+      <c r="D204">
+        <f t="shared" si="73"/>
+        <v>3</v>
+      </c>
+      <c r="E204">
+        <f ca="1">VLOOKUP($A204,tblSourceFrequencies[#All],IF($D204&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F204">
+        <f ca="1">VLOOKUP($A204,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G204">
+        <f ca="1">VLOOKUP($A204,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A205" t="str" cm="1">
+        <f t="array" aca="1" ref="A205" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B205">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C205">
+        <f t="shared" si="80"/>
+        <v>4</v>
+      </c>
+      <c r="D205">
+        <f t="shared" si="73"/>
+        <v>4</v>
+      </c>
+      <c r="E205">
+        <f ca="1">VLOOKUP($A205,tblSourceFrequencies[#All],IF($D205&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F205">
+        <f ca="1">VLOOKUP($A205,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G205">
+        <f ca="1">VLOOKUP($A205,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A206" t="str" cm="1">
+        <f t="array" aca="1" ref="A206" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B206">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C206">
+        <f t="shared" si="80"/>
+        <v>5</v>
+      </c>
+      <c r="D206">
+        <f t="shared" si="73"/>
+        <v>5</v>
+      </c>
+      <c r="E206">
+        <f ca="1">VLOOKUP($A206,tblSourceFrequencies[#All],IF($D206&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F206">
+        <f ca="1">VLOOKUP($A206,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G206">
+        <f ca="1">VLOOKUP($A206,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A207" t="str" cm="1">
+        <f t="array" aca="1" ref="A207" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B207">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C207">
+        <f t="shared" si="80"/>
+        <v>6</v>
+      </c>
+      <c r="D207">
+        <f t="shared" si="73"/>
+        <v>6</v>
+      </c>
+      <c r="E207">
+        <f ca="1">VLOOKUP($A207,tblSourceFrequencies[#All],IF($D207&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F207">
+        <f ca="1">VLOOKUP($A207,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G207">
+        <f ca="1">VLOOKUP($A207,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A208" t="str" cm="1">
+        <f t="array" aca="1" ref="A208" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B208">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C208">
+        <f t="shared" si="80"/>
+        <v>7</v>
+      </c>
+      <c r="D208">
+        <f t="shared" si="73"/>
+        <v>7</v>
+      </c>
+      <c r="E208">
+        <f ca="1">VLOOKUP($A208,tblSourceFrequencies[#All],IF($D208&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F208">
+        <f ca="1">VLOOKUP($A208,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G208">
+        <f ca="1">VLOOKUP($A208,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A209" t="str" cm="1">
+        <f t="array" aca="1" ref="A209" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B209">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C209">
+        <f t="shared" si="80"/>
+        <v>8</v>
+      </c>
+      <c r="D209">
+        <f t="shared" si="73"/>
+        <v>8</v>
+      </c>
+      <c r="E209">
+        <f ca="1">VLOOKUP($A209,tblSourceFrequencies[#All],IF($D209&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <f ca="1">VLOOKUP($A209,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G209">
+        <f ca="1">VLOOKUP($A209,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A210" t="str" cm="1">
+        <f t="array" aca="1" ref="A210" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B210">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C210">
+        <f t="shared" si="80"/>
+        <v>9</v>
+      </c>
+      <c r="D210">
+        <f t="shared" si="73"/>
+        <v>9</v>
+      </c>
+      <c r="E210">
+        <f ca="1">VLOOKUP($A210,tblSourceFrequencies[#All],IF($D210&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F210">
+        <f ca="1">VLOOKUP($A210,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G210">
+        <f ca="1">VLOOKUP($A210,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A211" t="str" cm="1">
+        <f t="array" aca="1" ref="A211" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B211">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C211">
+        <f t="shared" si="80"/>
+        <v>10</v>
+      </c>
+      <c r="D211">
+        <f t="shared" si="73"/>
+        <v>10</v>
+      </c>
+      <c r="E211">
+        <f ca="1">VLOOKUP($A211,tblSourceFrequencies[#All],IF($D211&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F211">
+        <f ca="1">VLOOKUP($A211,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G211">
+        <f ca="1">VLOOKUP($A211,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A212" t="str" cm="1">
+        <f t="array" aca="1" ref="A212" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B212">
+        <f>IF(MOD((ROW()-1),10)=0,10,MOD((ROW()-1),10))</f>
+        <v>1</v>
+      </c>
+      <c r="C212">
+        <f>B212</f>
+        <v>1</v>
+      </c>
+      <c r="D212">
+        <f t="shared" ref="D212:D281" si="81">C212</f>
+        <v>1</v>
+      </c>
+      <c r="E212">
+        <f ca="1">VLOOKUP($A212,tblSourceFrequencies[#All],IF($D212&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F212">
+        <f ca="1">VLOOKUP($A212,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G212">
+        <f ca="1">VLOOKUP($A212,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A213" t="str" cm="1">
+        <f t="array" aca="1" ref="A213" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B213">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C213">
+        <f t="shared" ref="C213:C221" si="82">B213</f>
+        <v>2</v>
+      </c>
+      <c r="D213">
+        <f t="shared" si="81"/>
+        <v>2</v>
+      </c>
+      <c r="E213">
+        <f ca="1">VLOOKUP($A213,tblSourceFrequencies[#All],IF($D213&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F213">
+        <f ca="1">VLOOKUP($A213,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G213">
+        <f ca="1">VLOOKUP($A213,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A214" t="str" cm="1">
+        <f t="array" aca="1" ref="A214" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B214">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C214">
+        <f t="shared" si="82"/>
+        <v>3</v>
+      </c>
+      <c r="D214">
+        <f t="shared" si="81"/>
+        <v>3</v>
+      </c>
+      <c r="E214">
+        <f ca="1">VLOOKUP($A214,tblSourceFrequencies[#All],IF($D214&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F214">
+        <f ca="1">VLOOKUP($A214,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G214">
+        <f ca="1">VLOOKUP($A214,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A215" t="str" cm="1">
+        <f t="array" aca="1" ref="A215" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B215">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C215">
+        <f t="shared" si="82"/>
+        <v>4</v>
+      </c>
+      <c r="D215">
+        <f t="shared" si="81"/>
+        <v>4</v>
+      </c>
+      <c r="E215">
+        <f ca="1">VLOOKUP($A215,tblSourceFrequencies[#All],IF($D215&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F215">
+        <f ca="1">VLOOKUP($A215,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G215">
+        <f ca="1">VLOOKUP($A215,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A216" t="str" cm="1">
+        <f t="array" aca="1" ref="A216" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B216">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C216">
+        <f t="shared" si="82"/>
+        <v>5</v>
+      </c>
+      <c r="D216">
+        <f t="shared" si="81"/>
+        <v>5</v>
+      </c>
+      <c r="E216">
+        <f ca="1">VLOOKUP($A216,tblSourceFrequencies[#All],IF($D216&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F216">
+        <f ca="1">VLOOKUP($A216,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G216">
+        <f ca="1">VLOOKUP($A216,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A217" t="str" cm="1">
+        <f t="array" aca="1" ref="A217" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B217">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C217">
+        <f t="shared" si="82"/>
+        <v>6</v>
+      </c>
+      <c r="D217">
+        <f t="shared" si="81"/>
+        <v>6</v>
+      </c>
+      <c r="E217">
+        <f ca="1">VLOOKUP($A217,tblSourceFrequencies[#All],IF($D217&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F217">
+        <f ca="1">VLOOKUP($A217,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G217">
+        <f ca="1">VLOOKUP($A217,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A218" t="str" cm="1">
+        <f t="array" aca="1" ref="A218" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B218">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C218">
+        <f t="shared" si="82"/>
+        <v>7</v>
+      </c>
+      <c r="D218">
+        <f t="shared" si="81"/>
+        <v>7</v>
+      </c>
+      <c r="E218">
+        <f ca="1">VLOOKUP($A218,tblSourceFrequencies[#All],IF($D218&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F218">
+        <f ca="1">VLOOKUP($A218,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G218">
+        <f ca="1">VLOOKUP($A218,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A219" t="str" cm="1">
+        <f t="array" aca="1" ref="A219" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B219">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C219">
+        <f t="shared" si="82"/>
+        <v>8</v>
+      </c>
+      <c r="D219">
+        <f t="shared" si="81"/>
+        <v>8</v>
+      </c>
+      <c r="E219">
+        <f ca="1">VLOOKUP($A219,tblSourceFrequencies[#All],IF($D219&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F219">
+        <f ca="1">VLOOKUP($A219,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G219">
+        <f ca="1">VLOOKUP($A219,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A220" t="str" cm="1">
+        <f t="array" aca="1" ref="A220" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B220">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C220">
+        <f t="shared" si="82"/>
+        <v>9</v>
+      </c>
+      <c r="D220">
+        <f t="shared" si="81"/>
+        <v>9</v>
+      </c>
+      <c r="E220">
+        <f ca="1">VLOOKUP($A220,tblSourceFrequencies[#All],IF($D220&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F220">
+        <f ca="1">VLOOKUP($A220,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G220">
+        <f ca="1">VLOOKUP($A220,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A221" t="str" cm="1">
+        <f t="array" aca="1" ref="A221" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B221">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C221">
+        <f t="shared" si="82"/>
+        <v>10</v>
+      </c>
+      <c r="D221">
+        <f t="shared" si="81"/>
+        <v>10</v>
+      </c>
+      <c r="E221">
+        <f ca="1">VLOOKUP($A221,tblSourceFrequencies[#All],IF($D221&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F221">
+        <f ca="1">VLOOKUP($A221,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G221">
+        <f ca="1">VLOOKUP($A221,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A222" t="str" cm="1">
+        <f t="array" aca="1" ref="A222" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B222">
+        <f>IF(MOD((ROW()-1),10)=0,10,MOD((ROW()-1),10))</f>
+        <v>1</v>
+      </c>
+      <c r="C222">
+        <f>B222</f>
+        <v>1</v>
+      </c>
+      <c r="D222">
+        <f t="shared" si="81"/>
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <f ca="1">VLOOKUP($A222,tblSourceFrequencies[#All],IF($D222&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F222">
+        <f ca="1">VLOOKUP($A222,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G222">
+        <f ca="1">VLOOKUP($A222,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A223" t="str" cm="1">
+        <f t="array" aca="1" ref="A223" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B223">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C223">
+        <f t="shared" ref="C223:C231" si="83">B223</f>
+        <v>2</v>
+      </c>
+      <c r="D223">
+        <f t="shared" si="81"/>
+        <v>2</v>
+      </c>
+      <c r="E223">
+        <f ca="1">VLOOKUP($A223,tblSourceFrequencies[#All],IF($D223&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F223">
+        <f ca="1">VLOOKUP($A223,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G223">
+        <f ca="1">VLOOKUP($A223,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A224" t="str" cm="1">
+        <f t="array" aca="1" ref="A224" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B224">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C224">
+        <f t="shared" si="83"/>
+        <v>3</v>
+      </c>
+      <c r="D224">
+        <f t="shared" si="81"/>
+        <v>3</v>
+      </c>
+      <c r="E224">
+        <f ca="1">VLOOKUP($A224,tblSourceFrequencies[#All],IF($D224&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <f ca="1">VLOOKUP($A224,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <f ca="1">VLOOKUP($A224,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A225" t="str" cm="1">
+        <f t="array" aca="1" ref="A225" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B225">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C225">
+        <f t="shared" si="83"/>
+        <v>4</v>
+      </c>
+      <c r="D225">
+        <f t="shared" si="81"/>
+        <v>4</v>
+      </c>
+      <c r="E225">
+        <f ca="1">VLOOKUP($A225,tblSourceFrequencies[#All],IF($D225&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F225">
+        <f ca="1">VLOOKUP($A225,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G225">
+        <f ca="1">VLOOKUP($A225,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A226" t="str" cm="1">
+        <f t="array" aca="1" ref="A226" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B226">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C226">
+        <f t="shared" si="83"/>
+        <v>5</v>
+      </c>
+      <c r="D226">
+        <f t="shared" si="81"/>
+        <v>5</v>
+      </c>
+      <c r="E226">
+        <f ca="1">VLOOKUP($A226,tblSourceFrequencies[#All],IF($D226&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <f ca="1">VLOOKUP($A226,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <f ca="1">VLOOKUP($A226,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A227" t="str" cm="1">
+        <f t="array" aca="1" ref="A227" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B227">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C227">
+        <f t="shared" si="83"/>
+        <v>6</v>
+      </c>
+      <c r="D227">
+        <f t="shared" si="81"/>
+        <v>6</v>
+      </c>
+      <c r="E227">
+        <f ca="1">VLOOKUP($A227,tblSourceFrequencies[#All],IF($D227&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F227">
+        <f ca="1">VLOOKUP($A227,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G227">
+        <f ca="1">VLOOKUP($A227,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A228" t="str" cm="1">
+        <f t="array" aca="1" ref="A228" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B228">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C228">
+        <f t="shared" si="83"/>
+        <v>7</v>
+      </c>
+      <c r="D228">
+        <f t="shared" si="81"/>
+        <v>7</v>
+      </c>
+      <c r="E228">
+        <f ca="1">VLOOKUP($A228,tblSourceFrequencies[#All],IF($D228&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F228">
+        <f ca="1">VLOOKUP($A228,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G228">
+        <f ca="1">VLOOKUP($A228,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A229" t="str" cm="1">
+        <f t="array" aca="1" ref="A229" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B229">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C229">
+        <f t="shared" si="83"/>
+        <v>8</v>
+      </c>
+      <c r="D229">
+        <f t="shared" si="81"/>
+        <v>8</v>
+      </c>
+      <c r="E229">
+        <f ca="1">VLOOKUP($A229,tblSourceFrequencies[#All],IF($D229&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <f ca="1">VLOOKUP($A229,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G229">
+        <f ca="1">VLOOKUP($A229,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A230" t="str" cm="1">
+        <f t="array" aca="1" ref="A230" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B230">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C230">
+        <f t="shared" si="83"/>
+        <v>9</v>
+      </c>
+      <c r="D230">
+        <f t="shared" si="81"/>
+        <v>9</v>
+      </c>
+      <c r="E230">
+        <f ca="1">VLOOKUP($A230,tblSourceFrequencies[#All],IF($D230&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F230">
+        <f ca="1">VLOOKUP($A230,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G230">
+        <f ca="1">VLOOKUP($A230,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A231" t="str" cm="1">
+        <f t="array" aca="1" ref="A231" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B231">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C231">
+        <f t="shared" si="83"/>
+        <v>10</v>
+      </c>
+      <c r="D231">
+        <f t="shared" si="81"/>
+        <v>10</v>
+      </c>
+      <c r="E231">
+        <f ca="1">VLOOKUP($A231,tblSourceFrequencies[#All],IF($D231&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <f ca="1">VLOOKUP($A231,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G231">
+        <f ca="1">VLOOKUP($A231,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A232" t="str" cm="1">
+        <f t="array" aca="1" ref="A232" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B232">
+        <f>IF(MOD((ROW()-1),10)=0,10,MOD((ROW()-1),10))</f>
+        <v>1</v>
+      </c>
+      <c r="C232">
+        <f>B232</f>
+        <v>1</v>
+      </c>
+      <c r="D232">
+        <f t="shared" si="81"/>
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <f ca="1">VLOOKUP($A232,tblSourceFrequencies[#All],IF($D232&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F232">
+        <f ca="1">VLOOKUP($A232,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G232">
+        <f ca="1">VLOOKUP($A232,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A233" t="str" cm="1">
+        <f t="array" aca="1" ref="A233" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B233">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C233">
+        <f t="shared" ref="C233:C241" si="84">B233</f>
+        <v>2</v>
+      </c>
+      <c r="D233">
+        <f t="shared" si="81"/>
+        <v>2</v>
+      </c>
+      <c r="E233">
+        <f ca="1">VLOOKUP($A233,tblSourceFrequencies[#All],IF($D233&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F233">
+        <f ca="1">VLOOKUP($A233,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G233">
+        <f ca="1">VLOOKUP($A233,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A234" t="str" cm="1">
+        <f t="array" aca="1" ref="A234" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B234">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C234">
+        <f t="shared" si="84"/>
+        <v>3</v>
+      </c>
+      <c r="D234">
+        <f t="shared" si="81"/>
+        <v>3</v>
+      </c>
+      <c r="E234">
+        <f ca="1">VLOOKUP($A234,tblSourceFrequencies[#All],IF($D234&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F234">
+        <f ca="1">VLOOKUP($A234,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G234">
+        <f ca="1">VLOOKUP($A234,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A235" t="str" cm="1">
+        <f t="array" aca="1" ref="A235" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B235">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C235">
+        <f t="shared" si="84"/>
+        <v>4</v>
+      </c>
+      <c r="D235">
+        <f t="shared" si="81"/>
+        <v>4</v>
+      </c>
+      <c r="E235">
+        <f ca="1">VLOOKUP($A235,tblSourceFrequencies[#All],IF($D235&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F235">
+        <f ca="1">VLOOKUP($A235,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G235">
+        <f ca="1">VLOOKUP($A235,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A236" t="str" cm="1">
+        <f t="array" aca="1" ref="A236" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B236">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C236">
+        <f t="shared" si="84"/>
+        <v>5</v>
+      </c>
+      <c r="D236">
+        <f t="shared" si="81"/>
+        <v>5</v>
+      </c>
+      <c r="E236">
+        <f ca="1">VLOOKUP($A236,tblSourceFrequencies[#All],IF($D236&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F236">
+        <f ca="1">VLOOKUP($A236,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G236">
+        <f ca="1">VLOOKUP($A236,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A237" t="str" cm="1">
+        <f t="array" aca="1" ref="A237" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B237">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C237">
+        <f t="shared" si="84"/>
+        <v>6</v>
+      </c>
+      <c r="D237">
+        <f t="shared" si="81"/>
+        <v>6</v>
+      </c>
+      <c r="E237">
+        <f ca="1">VLOOKUP($A237,tblSourceFrequencies[#All],IF($D237&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F237">
+        <f ca="1">VLOOKUP($A237,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G237">
+        <f ca="1">VLOOKUP($A237,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A238" t="str" cm="1">
+        <f t="array" aca="1" ref="A238" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B238">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C238">
+        <f t="shared" si="84"/>
+        <v>7</v>
+      </c>
+      <c r="D238">
+        <f t="shared" si="81"/>
+        <v>7</v>
+      </c>
+      <c r="E238">
+        <f ca="1">VLOOKUP($A238,tblSourceFrequencies[#All],IF($D238&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F238">
+        <f ca="1">VLOOKUP($A238,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G238">
+        <f ca="1">VLOOKUP($A238,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A239" t="str" cm="1">
+        <f t="array" aca="1" ref="A239" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B239">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C239">
+        <f t="shared" si="84"/>
+        <v>8</v>
+      </c>
+      <c r="D239">
+        <f t="shared" si="81"/>
+        <v>8</v>
+      </c>
+      <c r="E239">
+        <f ca="1">VLOOKUP($A239,tblSourceFrequencies[#All],IF($D239&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F239">
+        <f ca="1">VLOOKUP($A239,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G239">
+        <f ca="1">VLOOKUP($A239,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A240" t="str" cm="1">
+        <f t="array" aca="1" ref="A240" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B240">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C240">
+        <f t="shared" si="84"/>
+        <v>9</v>
+      </c>
+      <c r="D240">
+        <f t="shared" si="81"/>
+        <v>9</v>
+      </c>
+      <c r="E240">
+        <f ca="1">VLOOKUP($A240,tblSourceFrequencies[#All],IF($D240&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F240">
+        <f ca="1">VLOOKUP($A240,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G240">
+        <f ca="1">VLOOKUP($A240,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A241" t="str" cm="1">
+        <f t="array" aca="1" ref="A241" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B241">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C241">
+        <f t="shared" si="84"/>
+        <v>10</v>
+      </c>
+      <c r="D241">
+        <f t="shared" si="81"/>
+        <v>10</v>
+      </c>
+      <c r="E241">
+        <f ca="1">VLOOKUP($A241,tblSourceFrequencies[#All],IF($D241&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F241">
+        <f ca="1">VLOOKUP($A241,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G241">
+        <f ca="1">VLOOKUP($A241,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A242" t="str" cm="1">
+        <f t="array" aca="1" ref="A242" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B242">
+        <f>IF(MOD((ROW()-1),10)=0,10,MOD((ROW()-1),10))</f>
+        <v>1</v>
+      </c>
+      <c r="C242">
+        <f>B242</f>
+        <v>1</v>
+      </c>
+      <c r="D242">
+        <f t="shared" si="81"/>
+        <v>1</v>
+      </c>
+      <c r="E242">
+        <f ca="1">VLOOKUP($A242,tblSourceFrequencies[#All],IF($D242&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F242">
+        <f ca="1">VLOOKUP($A242,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G242">
+        <f ca="1">VLOOKUP($A242,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A243" t="str" cm="1">
+        <f t="array" aca="1" ref="A243" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B243">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C243">
+        <f t="shared" ref="C243:C251" si="85">B243</f>
+        <v>2</v>
+      </c>
+      <c r="D243">
+        <f t="shared" si="81"/>
+        <v>2</v>
+      </c>
+      <c r="E243">
+        <f ca="1">VLOOKUP($A243,tblSourceFrequencies[#All],IF($D243&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F243">
+        <f ca="1">VLOOKUP($A243,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G243">
+        <f ca="1">VLOOKUP($A243,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A244" t="str" cm="1">
+        <f t="array" aca="1" ref="A244" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B244">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C244">
+        <f t="shared" si="85"/>
+        <v>3</v>
+      </c>
+      <c r="D244">
+        <f t="shared" si="81"/>
+        <v>3</v>
+      </c>
+      <c r="E244">
+        <f ca="1">VLOOKUP($A244,tblSourceFrequencies[#All],IF($D244&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F244">
+        <f ca="1">VLOOKUP($A244,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G244">
+        <f ca="1">VLOOKUP($A244,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A245" t="str" cm="1">
+        <f t="array" aca="1" ref="A245" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B245">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C245">
+        <f t="shared" si="85"/>
+        <v>4</v>
+      </c>
+      <c r="D245">
+        <f t="shared" si="81"/>
+        <v>4</v>
+      </c>
+      <c r="E245">
+        <f ca="1">VLOOKUP($A245,tblSourceFrequencies[#All],IF($D245&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F245">
+        <f ca="1">VLOOKUP($A245,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G245">
+        <f ca="1">VLOOKUP($A245,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A246" t="str" cm="1">
+        <f t="array" aca="1" ref="A246" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B246">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C246">
+        <f t="shared" si="85"/>
+        <v>5</v>
+      </c>
+      <c r="D246">
+        <f t="shared" si="81"/>
+        <v>5</v>
+      </c>
+      <c r="E246">
+        <f ca="1">VLOOKUP($A246,tblSourceFrequencies[#All],IF($D246&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F246">
+        <f ca="1">VLOOKUP($A246,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G246">
+        <f ca="1">VLOOKUP($A246,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A247" t="str" cm="1">
+        <f t="array" aca="1" ref="A247" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B247">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C247">
+        <f t="shared" si="85"/>
+        <v>6</v>
+      </c>
+      <c r="D247">
+        <f t="shared" si="81"/>
+        <v>6</v>
+      </c>
+      <c r="E247">
+        <f ca="1">VLOOKUP($A247,tblSourceFrequencies[#All],IF($D247&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F247">
+        <f ca="1">VLOOKUP($A247,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G247">
+        <f ca="1">VLOOKUP($A247,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A248" t="str" cm="1">
+        <f t="array" aca="1" ref="A248" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B248">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C248">
+        <f t="shared" si="85"/>
+        <v>7</v>
+      </c>
+      <c r="D248">
+        <f t="shared" si="81"/>
+        <v>7</v>
+      </c>
+      <c r="E248">
+        <f ca="1">VLOOKUP($A248,tblSourceFrequencies[#All],IF($D248&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F248">
+        <f ca="1">VLOOKUP($A248,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G248">
+        <f ca="1">VLOOKUP($A248,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A249" t="str" cm="1">
+        <f t="array" aca="1" ref="A249" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B249">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C249">
+        <f t="shared" si="85"/>
+        <v>8</v>
+      </c>
+      <c r="D249">
+        <f t="shared" si="81"/>
+        <v>8</v>
+      </c>
+      <c r="E249">
+        <f ca="1">VLOOKUP($A249,tblSourceFrequencies[#All],IF($D249&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F249">
+        <f ca="1">VLOOKUP($A249,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G249">
+        <f ca="1">VLOOKUP($A249,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A250" t="str" cm="1">
+        <f t="array" aca="1" ref="A250" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B250">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C250">
+        <f t="shared" si="85"/>
+        <v>9</v>
+      </c>
+      <c r="D250">
+        <f t="shared" si="81"/>
+        <v>9</v>
+      </c>
+      <c r="E250">
+        <f ca="1">VLOOKUP($A250,tblSourceFrequencies[#All],IF($D250&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F250">
+        <f ca="1">VLOOKUP($A250,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G250">
+        <f ca="1">VLOOKUP($A250,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A251" t="str" cm="1">
+        <f t="array" aca="1" ref="A251" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B251">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C251">
+        <f t="shared" si="85"/>
+        <v>10</v>
+      </c>
+      <c r="D251">
+        <f t="shared" si="81"/>
+        <v>10</v>
+      </c>
+      <c r="E251">
+        <f ca="1">VLOOKUP($A251,tblSourceFrequencies[#All],IF($D251&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F251">
+        <f ca="1">VLOOKUP($A251,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G251">
+        <f ca="1">VLOOKUP($A251,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A252" t="str" cm="1">
+        <f t="array" aca="1" ref="A252" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B252">
+        <f>IF(MOD((ROW()-1),10)=0,10,MOD((ROW()-1),10))</f>
+        <v>1</v>
+      </c>
+      <c r="C252">
+        <f>B252</f>
+        <v>1</v>
+      </c>
+      <c r="D252">
+        <f t="shared" si="81"/>
+        <v>1</v>
+      </c>
+      <c r="E252">
+        <f ca="1">VLOOKUP($A252,tblSourceFrequencies[#All],IF($D252&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F252">
+        <f ca="1">VLOOKUP($A252,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G252">
+        <f ca="1">VLOOKUP($A252,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A253" t="str" cm="1">
+        <f t="array" aca="1" ref="A253" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B253">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C253">
+        <f t="shared" ref="C253:C261" si="86">B253</f>
+        <v>2</v>
+      </c>
+      <c r="D253">
+        <f t="shared" si="81"/>
+        <v>2</v>
+      </c>
+      <c r="E253">
+        <f ca="1">VLOOKUP($A253,tblSourceFrequencies[#All],IF($D253&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F253">
+        <f ca="1">VLOOKUP($A253,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G253">
+        <f ca="1">VLOOKUP($A253,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A254" t="str" cm="1">
+        <f t="array" aca="1" ref="A254" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B254">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C254">
+        <f t="shared" si="86"/>
+        <v>3</v>
+      </c>
+      <c r="D254">
+        <f t="shared" si="81"/>
+        <v>3</v>
+      </c>
+      <c r="E254">
+        <f ca="1">VLOOKUP($A254,tblSourceFrequencies[#All],IF($D254&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F254">
+        <f ca="1">VLOOKUP($A254,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G254">
+        <f ca="1">VLOOKUP($A254,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A255" t="str" cm="1">
+        <f t="array" aca="1" ref="A255" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B255">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C255">
+        <f t="shared" si="86"/>
+        <v>4</v>
+      </c>
+      <c r="D255">
+        <f t="shared" si="81"/>
+        <v>4</v>
+      </c>
+      <c r="E255">
+        <f ca="1">VLOOKUP($A255,tblSourceFrequencies[#All],IF($D255&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F255">
+        <f ca="1">VLOOKUP($A255,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G255">
+        <f ca="1">VLOOKUP($A255,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A256" t="str" cm="1">
+        <f t="array" aca="1" ref="A256" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B256">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C256">
+        <f t="shared" si="86"/>
+        <v>5</v>
+      </c>
+      <c r="D256">
+        <f t="shared" si="81"/>
+        <v>5</v>
+      </c>
+      <c r="E256">
+        <f ca="1">VLOOKUP($A256,tblSourceFrequencies[#All],IF($D256&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F256">
+        <f ca="1">VLOOKUP($A256,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G256">
+        <f ca="1">VLOOKUP($A256,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A257" t="str" cm="1">
+        <f t="array" aca="1" ref="A257" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B257">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C257">
+        <f t="shared" si="86"/>
+        <v>6</v>
+      </c>
+      <c r="D257">
+        <f t="shared" si="81"/>
+        <v>6</v>
+      </c>
+      <c r="E257">
+        <f ca="1">VLOOKUP($A257,tblSourceFrequencies[#All],IF($D257&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F257">
+        <f ca="1">VLOOKUP($A257,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G257">
+        <f ca="1">VLOOKUP($A257,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A258" t="str" cm="1">
+        <f t="array" aca="1" ref="A258" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B258">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C258">
+        <f t="shared" si="86"/>
+        <v>7</v>
+      </c>
+      <c r="D258">
+        <f t="shared" si="81"/>
+        <v>7</v>
+      </c>
+      <c r="E258">
+        <f ca="1">VLOOKUP($A258,tblSourceFrequencies[#All],IF($D258&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F258">
+        <f ca="1">VLOOKUP($A258,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G258">
+        <f ca="1">VLOOKUP($A258,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A259" t="str" cm="1">
+        <f t="array" aca="1" ref="A259" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B259">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C259">
+        <f t="shared" si="86"/>
+        <v>8</v>
+      </c>
+      <c r="D259">
+        <f t="shared" si="81"/>
+        <v>8</v>
+      </c>
+      <c r="E259">
+        <f ca="1">VLOOKUP($A259,tblSourceFrequencies[#All],IF($D259&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F259">
+        <f ca="1">VLOOKUP($A259,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G259">
+        <f ca="1">VLOOKUP($A259,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A260" t="str" cm="1">
+        <f t="array" aca="1" ref="A260" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B260">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C260">
+        <f t="shared" si="86"/>
+        <v>9</v>
+      </c>
+      <c r="D260">
+        <f t="shared" si="81"/>
+        <v>9</v>
+      </c>
+      <c r="E260">
+        <f ca="1">VLOOKUP($A260,tblSourceFrequencies[#All],IF($D260&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F260">
+        <f ca="1">VLOOKUP($A260,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G260">
+        <f ca="1">VLOOKUP($A260,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A261" t="str" cm="1">
+        <f t="array" aca="1" ref="A261" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B261">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C261">
+        <f t="shared" si="86"/>
+        <v>10</v>
+      </c>
+      <c r="D261">
+        <f t="shared" si="81"/>
+        <v>10</v>
+      </c>
+      <c r="E261">
+        <f ca="1">VLOOKUP($A261,tblSourceFrequencies[#All],IF($D261&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F261">
+        <f ca="1">VLOOKUP($A261,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G261">
+        <f ca="1">VLOOKUP($A261,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A262" t="str" cm="1">
+        <f t="array" aca="1" ref="A262" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B262">
+        <f>IF(MOD((ROW()-1),10)=0,10,MOD((ROW()-1),10))</f>
+        <v>1</v>
+      </c>
+      <c r="C262">
+        <f>B262</f>
+        <v>1</v>
+      </c>
+      <c r="D262">
+        <f t="shared" si="81"/>
+        <v>1</v>
+      </c>
+      <c r="E262">
+        <f ca="1">VLOOKUP($A262,tblSourceFrequencies[#All],IF($D262&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F262">
+        <f ca="1">VLOOKUP($A262,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G262">
+        <f ca="1">VLOOKUP($A262,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A263" t="str" cm="1">
+        <f t="array" aca="1" ref="A263" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B263">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C263">
+        <f t="shared" ref="C263:C271" si="87">B263</f>
+        <v>2</v>
+      </c>
+      <c r="D263">
+        <f t="shared" si="81"/>
+        <v>2</v>
+      </c>
+      <c r="E263">
+        <f ca="1">VLOOKUP($A263,tblSourceFrequencies[#All],IF($D263&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F263">
+        <f ca="1">VLOOKUP($A263,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G263">
+        <f ca="1">VLOOKUP($A263,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A264" t="str" cm="1">
+        <f t="array" aca="1" ref="A264" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B264">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C264">
+        <f t="shared" si="87"/>
+        <v>3</v>
+      </c>
+      <c r="D264">
+        <f t="shared" si="81"/>
+        <v>3</v>
+      </c>
+      <c r="E264">
+        <f ca="1">VLOOKUP($A264,tblSourceFrequencies[#All],IF($D264&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F264">
+        <f ca="1">VLOOKUP($A264,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G264">
+        <f ca="1">VLOOKUP($A264,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A265" t="str" cm="1">
+        <f t="array" aca="1" ref="A265" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B265">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C265">
+        <f t="shared" si="87"/>
+        <v>4</v>
+      </c>
+      <c r="D265">
+        <f t="shared" si="81"/>
+        <v>4</v>
+      </c>
+      <c r="E265">
+        <f ca="1">VLOOKUP($A265,tblSourceFrequencies[#All],IF($D265&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F265">
+        <f ca="1">VLOOKUP($A265,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G265">
+        <f ca="1">VLOOKUP($A265,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A266" t="str" cm="1">
+        <f t="array" aca="1" ref="A266" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B266">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C266">
+        <f t="shared" si="87"/>
+        <v>5</v>
+      </c>
+      <c r="D266">
+        <f t="shared" si="81"/>
+        <v>5</v>
+      </c>
+      <c r="E266">
+        <f ca="1">VLOOKUP($A266,tblSourceFrequencies[#All],IF($D266&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F266">
+        <f ca="1">VLOOKUP($A266,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G266">
+        <f ca="1">VLOOKUP($A266,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A267" t="str" cm="1">
+        <f t="array" aca="1" ref="A267" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B267">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C267">
+        <f t="shared" si="87"/>
+        <v>6</v>
+      </c>
+      <c r="D267">
+        <f t="shared" si="81"/>
+        <v>6</v>
+      </c>
+      <c r="E267">
+        <f ca="1">VLOOKUP($A267,tblSourceFrequencies[#All],IF($D267&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F267">
+        <f ca="1">VLOOKUP($A267,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G267">
+        <f ca="1">VLOOKUP($A267,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A268" t="str" cm="1">
+        <f t="array" aca="1" ref="A268" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B268">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C268">
+        <f t="shared" si="87"/>
+        <v>7</v>
+      </c>
+      <c r="D268">
+        <f t="shared" si="81"/>
+        <v>7</v>
+      </c>
+      <c r="E268">
+        <f ca="1">VLOOKUP($A268,tblSourceFrequencies[#All],IF($D268&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F268">
+        <f ca="1">VLOOKUP($A268,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G268">
+        <f ca="1">VLOOKUP($A268,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A269" t="str" cm="1">
+        <f t="array" aca="1" ref="A269" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B269">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C269">
+        <f t="shared" si="87"/>
+        <v>8</v>
+      </c>
+      <c r="D269">
+        <f t="shared" si="81"/>
+        <v>8</v>
+      </c>
+      <c r="E269">
+        <f ca="1">VLOOKUP($A269,tblSourceFrequencies[#All],IF($D269&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F269">
+        <f ca="1">VLOOKUP($A269,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G269">
+        <f ca="1">VLOOKUP($A269,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A270" t="str" cm="1">
+        <f t="array" aca="1" ref="A270" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B270">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C270">
+        <f t="shared" si="87"/>
+        <v>9</v>
+      </c>
+      <c r="D270">
+        <f t="shared" si="81"/>
+        <v>9</v>
+      </c>
+      <c r="E270">
+        <f ca="1">VLOOKUP($A270,tblSourceFrequencies[#All],IF($D270&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F270">
+        <f ca="1">VLOOKUP($A270,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G270">
+        <f ca="1">VLOOKUP($A270,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A271" t="str" cm="1">
+        <f t="array" aca="1" ref="A271" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B271">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C271">
+        <f t="shared" si="87"/>
+        <v>10</v>
+      </c>
+      <c r="D271">
+        <f t="shared" si="81"/>
+        <v>10</v>
+      </c>
+      <c r="E271">
+        <f ca="1">VLOOKUP($A271,tblSourceFrequencies[#All],IF($D271&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F271">
+        <f ca="1">VLOOKUP($A271,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G271">
+        <f ca="1">VLOOKUP($A271,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A272" t="str" cm="1">
+        <f t="array" aca="1" ref="A272" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B272">
+        <f>IF(MOD((ROW()-1),10)=0,10,MOD((ROW()-1),10))</f>
+        <v>1</v>
+      </c>
+      <c r="C272">
+        <f>B272</f>
+        <v>1</v>
+      </c>
+      <c r="D272">
+        <f t="shared" si="81"/>
+        <v>1</v>
+      </c>
+      <c r="E272">
+        <f ca="1">VLOOKUP($A272,tblSourceFrequencies[#All],IF($D272&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F272">
+        <f ca="1">VLOOKUP($A272,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G272">
+        <f ca="1">VLOOKUP($A272,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A273" t="str" cm="1">
+        <f t="array" aca="1" ref="A273" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B273">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C273">
+        <f t="shared" ref="C273:C281" si="88">B273</f>
+        <v>2</v>
+      </c>
+      <c r="D273">
+        <f t="shared" si="81"/>
+        <v>2</v>
+      </c>
+      <c r="E273">
+        <f ca="1">VLOOKUP($A273,tblSourceFrequencies[#All],IF($D273&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F273">
+        <f ca="1">VLOOKUP($A273,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G273">
+        <f ca="1">VLOOKUP($A273,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A274" t="str" cm="1">
+        <f t="array" aca="1" ref="A274" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B274">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C274">
+        <f t="shared" si="88"/>
+        <v>3</v>
+      </c>
+      <c r="D274">
+        <f t="shared" si="81"/>
+        <v>3</v>
+      </c>
+      <c r="E274">
+        <f ca="1">VLOOKUP($A274,tblSourceFrequencies[#All],IF($D274&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F274">
+        <f ca="1">VLOOKUP($A274,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G274">
+        <f ca="1">VLOOKUP($A274,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A275" t="str" cm="1">
+        <f t="array" aca="1" ref="A275" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B275">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C275">
+        <f t="shared" si="88"/>
+        <v>4</v>
+      </c>
+      <c r="D275">
+        <f t="shared" si="81"/>
+        <v>4</v>
+      </c>
+      <c r="E275">
+        <f ca="1">VLOOKUP($A275,tblSourceFrequencies[#All],IF($D275&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F275">
+        <f ca="1">VLOOKUP($A275,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G275">
+        <f ca="1">VLOOKUP($A275,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A276" t="str" cm="1">
+        <f t="array" aca="1" ref="A276" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B276">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C276">
+        <f t="shared" si="88"/>
+        <v>5</v>
+      </c>
+      <c r="D276">
+        <f t="shared" si="81"/>
+        <v>5</v>
+      </c>
+      <c r="E276">
+        <f ca="1">VLOOKUP($A276,tblSourceFrequencies[#All],IF($D276&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F276">
+        <f ca="1">VLOOKUP($A276,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G276">
+        <f ca="1">VLOOKUP($A276,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A277" t="str" cm="1">
+        <f t="array" aca="1" ref="A277" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B277">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C277">
+        <f t="shared" si="88"/>
+        <v>6</v>
+      </c>
+      <c r="D277">
+        <f t="shared" si="81"/>
+        <v>6</v>
+      </c>
+      <c r="E277">
+        <f ca="1">VLOOKUP($A277,tblSourceFrequencies[#All],IF($D277&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F277">
+        <f ca="1">VLOOKUP($A277,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G277">
+        <f ca="1">VLOOKUP($A277,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A278" t="str" cm="1">
+        <f t="array" aca="1" ref="A278" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B278">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C278">
+        <f t="shared" si="88"/>
+        <v>7</v>
+      </c>
+      <c r="D278">
+        <f t="shared" si="81"/>
+        <v>7</v>
+      </c>
+      <c r="E278">
+        <f ca="1">VLOOKUP($A278,tblSourceFrequencies[#All],IF($D278&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F278">
+        <f ca="1">VLOOKUP($A278,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G278">
+        <f ca="1">VLOOKUP($A278,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A279" t="str" cm="1">
+        <f t="array" aca="1" ref="A279" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B279">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C279">
+        <f t="shared" si="88"/>
+        <v>8</v>
+      </c>
+      <c r="D279">
+        <f t="shared" si="81"/>
+        <v>8</v>
+      </c>
+      <c r="E279">
+        <f ca="1">VLOOKUP($A279,tblSourceFrequencies[#All],IF($D279&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F279">
+        <f ca="1">VLOOKUP($A279,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G279">
+        <f ca="1">VLOOKUP($A279,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A280" t="str" cm="1">
+        <f t="array" aca="1" ref="A280" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B280">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C280">
+        <f t="shared" si="88"/>
+        <v>9</v>
+      </c>
+      <c r="D280">
+        <f t="shared" si="81"/>
+        <v>9</v>
+      </c>
+      <c r="E280">
+        <f ca="1">VLOOKUP($A280,tblSourceFrequencies[#All],IF($D280&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F280">
+        <f ca="1">VLOOKUP($A280,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G280">
+        <f ca="1">VLOOKUP($A280,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A281" t="str" cm="1">
+        <f t="array" aca="1" ref="A281" ca="1">INDIRECT("vowel_data!A" &amp; (INT((ROW()-2)/10) + 2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B281">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C281">
+        <f t="shared" si="88"/>
+        <v>10</v>
+      </c>
+      <c r="D281">
+        <f t="shared" si="81"/>
+        <v>10</v>
+      </c>
+      <c r="E281">
+        <f ca="1">VLOOKUP($A281,tblSourceFrequencies[#All],IF($D281&lt;=5,8,9),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F281">
+        <f ca="1">VLOOKUP($A281,tblSourceFrequencies[#All],4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G281">
+        <f ca="1">VLOOKUP($A281,tblSourceFrequencies[#All],6,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2957,32 +9574,52 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BDE1E96-C936-4F47-A4C7-F64A152396BB}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
